--- a/code_generate_figures/data/metrics_FragPipe_TMT_all_ensemble_topk.xlsx
+++ b/code_generate_figures/data/metrics_FragPipe_TMT_all_ensemble_topk.xlsx
@@ -69,13 +69,13 @@
     <t xml:space="preserve">pauc001_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">pauc001_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">pauc001_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc001_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pauc001_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc001_A.D_HYms2815_TMT16</t>
@@ -540,13 +540,13 @@
     <t xml:space="preserve">pauc005_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">pauc005_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">pauc005_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc005_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pauc005_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc005_A.D_HYms2815_TMT16</t>
@@ -585,13 +585,13 @@
     <t xml:space="preserve">pauc01_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">pauc01_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">pauc01_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc01_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pauc01_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">pauc01_A.D_HYms2815_TMT16</t>
@@ -630,13 +630,13 @@
     <t xml:space="preserve">nMcc_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">nMcc_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">nMcc_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">nMcc_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nMcc_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">nMcc_A.D_HYms2815_TMT16</t>
@@ -675,13 +675,13 @@
     <t xml:space="preserve">geomean_C.E_HYms2faims815_TMT16</t>
   </si>
   <si>
+    <t xml:space="preserve">geomean_A.C_HYsps2815_TMT16</t>
+  </si>
+  <si>
     <t xml:space="preserve">geomean_B.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">geomean_B.E_HYsps2815_TMT16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geomean_A.C_HYsps2815_TMT16</t>
   </si>
   <si>
     <t xml:space="preserve">geomean_A.D_HYms2815_TMT16</t>
@@ -726,13 +726,13 @@
     <t xml:space="preserve">conditionC-conditionE</t>
   </si>
   <si>
+    <t xml:space="preserve">conditionA-conditionC</t>
+  </si>
+  <si>
     <t xml:space="preserve">conditionB-conditionC</t>
   </si>
   <si>
     <t xml:space="preserve">conditionB-conditionE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditionA-conditionC</t>
   </si>
   <si>
     <t xml:space="preserve">conditionA-conditionD</t>
@@ -1224,13 +1224,13 @@
         <v>0.8090653</v>
       </c>
       <c r="X2" t="n">
-        <v>0.79428695</v>
+        <v>0.7885364</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1304,13 +1304,13 @@
         <v>0.80883304</v>
       </c>
       <c r="X3" t="n">
-        <v>0.79400635</v>
+        <v>0.7885344</v>
       </c>
       <c r="Y3" t="n">
         <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1384,13 +1384,13 @@
         <v>0.808886206666667</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7940528</v>
+        <v>0.7885344</v>
       </c>
       <c r="Y4" t="n">
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1464,13 +1464,13 @@
         <v>0.8090663</v>
       </c>
       <c r="X5" t="n">
-        <v>0.79428695</v>
+        <v>0.7885364</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1544,13 +1544,13 @@
         <v>0.808840886666667</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7940053</v>
+        <v>0.7885323</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -1624,13 +1624,13 @@
         <v>0.808872466666667</v>
       </c>
       <c r="X7" t="n">
-        <v>0.79404875</v>
+        <v>0.7885344</v>
       </c>
       <c r="Y7" t="n">
         <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1704,13 +1704,13 @@
         <v>0.809072226666667</v>
       </c>
       <c r="X8" t="n">
-        <v>0.79428695</v>
+        <v>0.7885364</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1784,13 +1784,13 @@
         <v>0.808809286666667</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7939286</v>
+        <v>0.7885323</v>
       </c>
       <c r="Y9" t="n">
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1864,13 +1864,13 @@
         <v>0.808875306666667</v>
       </c>
       <c r="X10" t="n">
-        <v>0.79403865</v>
+        <v>0.7885344</v>
       </c>
       <c r="Y10" t="n">
         <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1944,13 +1944,13 @@
         <v>0.808816086666667</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7941901</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y11" t="n">
         <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2024,13 +2024,13 @@
         <v>0.80877084</v>
       </c>
       <c r="X12" t="n">
-        <v>0.79375695</v>
+        <v>0.7885323</v>
       </c>
       <c r="Y12" t="n">
         <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2104,13 +2104,13 @@
         <v>0.808893326666667</v>
       </c>
       <c r="X13" t="n">
-        <v>0.79403965</v>
+        <v>0.7885364</v>
       </c>
       <c r="Y13" t="n">
         <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2184,13 +2184,13 @@
         <v>0.808710013333333</v>
       </c>
       <c r="X14" t="n">
-        <v>0.79401445</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y14" t="n">
         <v>38</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2264,13 +2264,13 @@
         <v>0.8087706</v>
       </c>
       <c r="X15" t="n">
-        <v>0.79375695</v>
+        <v>0.7885323</v>
       </c>
       <c r="Y15" t="n">
         <v>33</v>
       </c>
       <c r="Z15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -2344,13 +2344,13 @@
         <v>0.80892288</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7940356</v>
+        <v>0.7885364</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2424,13 +2424,13 @@
         <v>0.808712166666667</v>
       </c>
       <c r="X17" t="n">
-        <v>0.79401445</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y17" t="n">
         <v>36</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -2504,13 +2504,13 @@
         <v>0.80864624</v>
       </c>
       <c r="X18" t="n">
-        <v>0.79342275</v>
+        <v>0.7885261</v>
       </c>
       <c r="Y18" t="n">
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -2584,13 +2584,13 @@
         <v>0.80894832</v>
       </c>
       <c r="X19" t="n">
-        <v>0.7940215</v>
+        <v>0.7885364</v>
       </c>
       <c r="Y19" t="n">
         <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2664,13 +2664,13 @@
         <v>0.808711733333333</v>
       </c>
       <c r="X20" t="n">
-        <v>0.79401445</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y20" t="n">
         <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -2744,13 +2744,13 @@
         <v>0.80865072</v>
       </c>
       <c r="X21" t="n">
-        <v>0.79342885</v>
+        <v>0.7885261</v>
       </c>
       <c r="Y21" t="n">
         <v>39</v>
       </c>
       <c r="Z21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -2824,13 +2824,13 @@
         <v>0.8089367</v>
       </c>
       <c r="X22" t="n">
-        <v>0.79400435</v>
+        <v>0.7885344</v>
       </c>
       <c r="Y22" t="n">
         <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -2904,13 +2904,13 @@
         <v>0.8086408</v>
       </c>
       <c r="X23" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y23" t="n">
         <v>48</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2984,13 +2984,13 @@
         <v>0.80865072</v>
       </c>
       <c r="X24" t="n">
-        <v>0.79342885</v>
+        <v>0.7885261</v>
       </c>
       <c r="Y24" t="n">
         <v>40</v>
       </c>
       <c r="Z24" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -3064,13 +3064,13 @@
         <v>0.808961286666667</v>
       </c>
       <c r="X25" t="n">
-        <v>0.79397705</v>
+        <v>0.7885364</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -3144,13 +3144,13 @@
         <v>0.8086408</v>
       </c>
       <c r="X26" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y26" t="n">
         <v>49</v>
       </c>
       <c r="Z26" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -3224,7 +3224,7 @@
         <v>0.808600646666667</v>
       </c>
       <c r="X27" t="n">
-        <v>0.7933844</v>
+        <v>0.7885261</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
@@ -3304,13 +3304,13 @@
         <v>0.808944026666667</v>
       </c>
       <c r="X28" t="n">
-        <v>0.79392155</v>
+        <v>0.7885344</v>
       </c>
       <c r="Y28" t="n">
         <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -3384,13 +3384,13 @@
         <v>0.8086408</v>
       </c>
       <c r="X29" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y29" t="n">
         <v>50</v>
       </c>
       <c r="Z29" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -3464,13 +3464,13 @@
         <v>0.808586386666667</v>
       </c>
       <c r="X30" t="n">
-        <v>0.7932754</v>
+        <v>0.7885261</v>
       </c>
       <c r="Y30" t="n">
         <v>54</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
@@ -3544,13 +3544,13 @@
         <v>0.80895262</v>
       </c>
       <c r="X31" t="n">
-        <v>0.79393365</v>
+        <v>0.7885344</v>
       </c>
       <c r="Y31" t="n">
         <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -3624,13 +3624,13 @@
         <v>0.808641246666667</v>
       </c>
       <c r="X32" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y32" t="n">
         <v>42</v>
       </c>
       <c r="Z32" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -3704,13 +3704,13 @@
         <v>0.808588553333333</v>
       </c>
       <c r="X33" t="n">
-        <v>0.7932754</v>
+        <v>0.7885261</v>
       </c>
       <c r="Y33" t="n">
         <v>53</v>
       </c>
       <c r="Z33" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -3784,7 +3784,7 @@
         <v>0.808945433333333</v>
       </c>
       <c r="X34" t="n">
-        <v>0.79391955</v>
+        <v>0.7885344</v>
       </c>
       <c r="Y34" t="n">
         <v>15</v>
@@ -3864,13 +3864,13 @@
         <v>0.808641246666667</v>
       </c>
       <c r="X35" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y35" t="n">
         <v>43</v>
       </c>
       <c r="Z35" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -3944,13 +3944,13 @@
         <v>0.808590433333333</v>
       </c>
       <c r="X36" t="n">
-        <v>0.7932895</v>
+        <v>0.7885261</v>
       </c>
       <c r="Y36" t="n">
         <v>52</v>
       </c>
       <c r="Z36" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
@@ -4024,13 +4024,13 @@
         <v>0.808940406666667</v>
       </c>
       <c r="X37" t="n">
-        <v>0.79386195</v>
+        <v>0.7885323</v>
       </c>
       <c r="Y37" t="n">
         <v>17</v>
       </c>
       <c r="Z37" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -4104,13 +4104,13 @@
         <v>0.808641246666667</v>
       </c>
       <c r="X38" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y38" t="n">
         <v>44</v>
       </c>
       <c r="Z38" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -4184,13 +4184,13 @@
         <v>0.81035852</v>
       </c>
       <c r="X39" t="n">
-        <v>0.7961208</v>
+        <v>0.7906454</v>
       </c>
       <c r="Y39" t="n">
         <v>1</v>
       </c>
       <c r="Z39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -4264,7 +4264,7 @@
         <v>0.8088335</v>
       </c>
       <c r="X40" t="n">
-        <v>0.79359345</v>
+        <v>0.7885323</v>
       </c>
       <c r="Y40" t="n">
         <v>25</v>
@@ -4344,13 +4344,13 @@
         <v>0.808641246666667</v>
       </c>
       <c r="X41" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y41" t="n">
         <v>45</v>
       </c>
       <c r="Z41" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -4424,13 +4424,13 @@
         <v>0.810336746666667</v>
       </c>
       <c r="X42" t="n">
-        <v>0.7961107</v>
+        <v>0.7906454</v>
       </c>
       <c r="Y42" t="n">
         <v>2</v>
       </c>
       <c r="Z42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -4504,7 +4504,7 @@
         <v>0.80881374</v>
       </c>
       <c r="X43" t="n">
-        <v>0.7935421</v>
+        <v>0.7885323</v>
       </c>
       <c r="Y43" t="n">
         <v>28</v>
@@ -4584,13 +4584,13 @@
         <v>0.808641246666667</v>
       </c>
       <c r="X44" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y44" t="n">
         <v>46</v>
       </c>
       <c r="Z44" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -4664,13 +4664,13 @@
         <v>0.810335666666667</v>
       </c>
       <c r="X45" t="n">
-        <v>0.7961107</v>
+        <v>0.7906454</v>
       </c>
       <c r="Y45" t="n">
         <v>3</v>
       </c>
       <c r="Z45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -4744,7 +4744,7 @@
         <v>0.808792413333333</v>
       </c>
       <c r="X46" t="n">
-        <v>0.7935076</v>
+        <v>0.7885302</v>
       </c>
       <c r="Y46" t="n">
         <v>30</v>
@@ -4824,13 +4824,13 @@
         <v>0.808641246666667</v>
       </c>
       <c r="X47" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y47" t="n">
         <v>47</v>
       </c>
       <c r="Z47" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -4904,13 +4904,13 @@
         <v>0.810258326666667</v>
       </c>
       <c r="X48" t="n">
-        <v>0.79612885</v>
+        <v>0.7906454</v>
       </c>
       <c r="Y48" t="n">
         <v>4</v>
       </c>
       <c r="Z48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -4984,7 +4984,7 @@
         <v>0.808780566666667</v>
       </c>
       <c r="X49" t="n">
-        <v>0.7935056</v>
+        <v>0.7885302</v>
       </c>
       <c r="Y49" t="n">
         <v>31</v>
@@ -5064,13 +5064,13 @@
         <v>0.808474873333333</v>
       </c>
       <c r="X50" t="n">
-        <v>0.79375905</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y50" t="n">
         <v>55</v>
       </c>
       <c r="Z50" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -5144,13 +5144,13 @@
         <v>0.810245</v>
       </c>
       <c r="X51" t="n">
-        <v>0.79612885</v>
+        <v>0.7906454</v>
       </c>
       <c r="Y51" t="n">
         <v>5</v>
       </c>
       <c r="Z51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -5224,13 +5224,13 @@
         <v>0.808763746666667</v>
       </c>
       <c r="X52" t="n">
-        <v>0.7934995</v>
+        <v>0.7885302</v>
       </c>
       <c r="Y52" t="n">
         <v>34</v>
       </c>
       <c r="Z52" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -5304,13 +5304,13 @@
         <v>0.808474873333333</v>
       </c>
       <c r="X53" t="n">
-        <v>0.79375905</v>
+        <v>0.7885385</v>
       </c>
       <c r="Y53" t="n">
         <v>56</v>
       </c>
       <c r="Z53" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
@@ -5384,13 +5384,13 @@
         <v>0.81024392</v>
       </c>
       <c r="X54" t="n">
-        <v>0.79612885</v>
+        <v>0.7906454</v>
       </c>
       <c r="Y54" t="n">
         <v>6</v>
       </c>
       <c r="Z54" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -5464,13 +5464,13 @@
         <v>0.808743026666667</v>
       </c>
       <c r="X55" t="n">
-        <v>0.7935056</v>
+        <v>0.7885302</v>
       </c>
       <c r="Y55" t="n">
         <v>35</v>
       </c>
       <c r="Z55" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
@@ -5544,13 +5544,13 @@
         <v>0.80939674</v>
       </c>
       <c r="X56" t="n">
-        <v>0.79417805</v>
+        <v>0.7884538</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
       </c>
       <c r="Z56" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -5624,13 +5624,13 @@
         <v>0.78679098</v>
       </c>
       <c r="X57" t="n">
-        <v>0.7893155</v>
+        <v>0.79184</v>
       </c>
       <c r="Y57" t="n">
         <v>57</v>
       </c>
       <c r="Z57" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -5704,7 +5704,7 @@
         <v>0.75345478</v>
       </c>
       <c r="X58" t="n">
-        <v>0.7693201</v>
+        <v>0.7851854</v>
       </c>
       <c r="Y58" t="n">
         <v>59</v>
@@ -5784,7 +5784,7 @@
         <v>0.726398306666667</v>
       </c>
       <c r="X59" t="n">
-        <v>0.7394318</v>
+        <v>0.7524653</v>
       </c>
       <c r="Y59" t="n">
         <v>61</v>
@@ -5864,7 +5864,7 @@
         <v>0.70147616</v>
       </c>
       <c r="X60" t="n">
-        <v>0.6900007</v>
+        <v>0.6785252</v>
       </c>
       <c r="Y60" t="n">
         <v>63</v>
@@ -5944,13 +5944,13 @@
         <v>0.67827414</v>
       </c>
       <c r="X61" t="n">
-        <v>0.65853215</v>
+        <v>0.6432685</v>
       </c>
       <c r="Y61" t="n">
         <v>66</v>
       </c>
       <c r="Z61" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62">
@@ -6024,13 +6024,13 @@
         <v>0.653316113333333</v>
       </c>
       <c r="X62" t="n">
-        <v>0.6440821</v>
+        <v>0.6425377</v>
       </c>
       <c r="Y62" t="n">
         <v>68</v>
       </c>
       <c r="Z62" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63">
@@ -6104,7 +6104,7 @@
         <v>0.632581666666667</v>
       </c>
       <c r="X63" t="n">
-        <v>0.61103935</v>
+        <v>0.6025268</v>
       </c>
       <c r="Y63" t="n">
         <v>70</v>
@@ -6184,7 +6184,7 @@
         <v>0.617996513333333</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5852239</v>
+        <v>0.5718566</v>
       </c>
       <c r="Y64" t="n">
         <v>72</v>
@@ -6264,7 +6264,7 @@
         <v>0.60255054</v>
       </c>
       <c r="X65" t="n">
-        <v>0.5634001</v>
+        <v>0.5533633</v>
       </c>
       <c r="Y65" t="n">
         <v>74</v>
@@ -6344,7 +6344,7 @@
         <v>0.590616446666667</v>
       </c>
       <c r="X66" t="n">
-        <v>0.54915795</v>
+        <v>0.5435918</v>
       </c>
       <c r="Y66" t="n">
         <v>76</v>
@@ -6424,13 +6424,13 @@
         <v>0.5809146</v>
       </c>
       <c r="X67" t="n">
-        <v>0.54011185</v>
+        <v>0.5362991</v>
       </c>
       <c r="Y67" t="n">
         <v>78</v>
       </c>
       <c r="Z67" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
@@ -6504,7 +6504,7 @@
         <v>0.57544214</v>
       </c>
       <c r="X68" t="n">
-        <v>0.5356748</v>
+        <v>0.5330194</v>
       </c>
       <c r="Y68" t="n">
         <v>80</v>
@@ -6584,7 +6584,7 @@
         <v>0.56889266</v>
       </c>
       <c r="X69" t="n">
-        <v>0.53190795</v>
+        <v>0.5299689</v>
       </c>
       <c r="Y69" t="n">
         <v>82</v>
@@ -6664,7 +6664,7 @@
         <v>0.56141876</v>
       </c>
       <c r="X70" t="n">
-        <v>0.5284237</v>
+        <v>0.5272479</v>
       </c>
       <c r="Y70" t="n">
         <v>84</v>
@@ -6744,7 +6744,7 @@
         <v>0.55599724</v>
       </c>
       <c r="X71" t="n">
-        <v>0.5257452</v>
+        <v>0.5244989</v>
       </c>
       <c r="Y71" t="n">
         <v>86</v>
@@ -6824,7 +6824,7 @@
         <v>0.54984334</v>
       </c>
       <c r="X72" t="n">
-        <v>0.52207735</v>
+        <v>0.5208812</v>
       </c>
       <c r="Y72" t="n">
         <v>89</v>
@@ -6904,7 +6904,7 @@
         <v>0.54567282</v>
       </c>
       <c r="X73" t="n">
-        <v>0.520411</v>
+        <v>0.5196563</v>
       </c>
       <c r="Y73" t="n">
         <v>90</v>
@@ -6984,13 +6984,13 @@
         <v>0.809399373333333</v>
       </c>
       <c r="X74" t="n">
-        <v>0.7941791</v>
+        <v>0.7884559</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
       </c>
       <c r="Z74" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75">
@@ -7064,13 +7064,13 @@
         <v>0.784629986666667</v>
       </c>
       <c r="X75" t="n">
-        <v>0.78905575</v>
+        <v>0.7934815</v>
       </c>
       <c r="Y75" t="n">
         <v>58</v>
       </c>
       <c r="Z75" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -7144,7 +7144,7 @@
         <v>0.752205453333333</v>
       </c>
       <c r="X76" t="n">
-        <v>0.7681751</v>
+        <v>0.7841447</v>
       </c>
       <c r="Y76" t="n">
         <v>60</v>
@@ -7224,7 +7224,7 @@
         <v>0.72550316</v>
       </c>
       <c r="X77" t="n">
-        <v>0.73944055</v>
+        <v>0.7533779</v>
       </c>
       <c r="Y77" t="n">
         <v>62</v>
@@ -7304,7 +7304,7 @@
         <v>0.70147584</v>
       </c>
       <c r="X78" t="n">
-        <v>0.6900005</v>
+        <v>0.6785252</v>
       </c>
       <c r="Y78" t="n">
         <v>64</v>
@@ -7384,13 +7384,13 @@
         <v>0.678630413333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.65830665</v>
+        <v>0.6431894</v>
       </c>
       <c r="Y79" t="n">
         <v>65</v>
       </c>
       <c r="Z79" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80">
@@ -7464,13 +7464,13 @@
         <v>0.655413866666667</v>
       </c>
       <c r="X80" t="n">
-        <v>0.6440144</v>
+        <v>0.6440034</v>
       </c>
       <c r="Y80" t="n">
         <v>67</v>
       </c>
       <c r="Z80" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81">
@@ -7544,7 +7544,7 @@
         <v>0.635541633333333</v>
       </c>
       <c r="X81" t="n">
-        <v>0.6149823</v>
+        <v>0.6068539</v>
       </c>
       <c r="Y81" t="n">
         <v>69</v>
@@ -7624,7 +7624,7 @@
         <v>0.620308366666667</v>
       </c>
       <c r="X82" t="n">
-        <v>0.5926567</v>
+        <v>0.5793681</v>
       </c>
       <c r="Y82" t="n">
         <v>71</v>
@@ -7704,7 +7704,7 @@
         <v>0.606017273333333</v>
       </c>
       <c r="X83" t="n">
-        <v>0.56964975</v>
+        <v>0.5589843</v>
       </c>
       <c r="Y83" t="n">
         <v>73</v>
@@ -7784,7 +7784,7 @@
         <v>0.59409074</v>
       </c>
       <c r="X84" t="n">
-        <v>0.5537818</v>
+        <v>0.5471076</v>
       </c>
       <c r="Y84" t="n">
         <v>75</v>
@@ -7864,7 +7864,7 @@
         <v>0.58462122</v>
       </c>
       <c r="X85" t="n">
-        <v>0.54431065</v>
+        <v>0.5390651</v>
       </c>
       <c r="Y85" t="n">
         <v>77</v>
@@ -7944,13 +7944,13 @@
         <v>0.57941702</v>
       </c>
       <c r="X86" t="n">
-        <v>0.53938315</v>
+        <v>0.5366239</v>
       </c>
       <c r="Y86" t="n">
         <v>79</v>
       </c>
       <c r="Z86" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
@@ -8024,7 +8024,7 @@
         <v>0.57416188</v>
       </c>
       <c r="X87" t="n">
-        <v>0.535731</v>
+        <v>0.5336795</v>
       </c>
       <c r="Y87" t="n">
         <v>81</v>
@@ -8104,7 +8104,7 @@
         <v>0.568048793333333</v>
       </c>
       <c r="X88" t="n">
-        <v>0.53270435</v>
+        <v>0.5314988</v>
       </c>
       <c r="Y88" t="n">
         <v>83</v>
@@ -8184,7 +8184,7 @@
         <v>0.561404673333333</v>
       </c>
       <c r="X89" t="n">
-        <v>0.52931865</v>
+        <v>0.5284544</v>
       </c>
       <c r="Y89" t="n">
         <v>85</v>
@@ -8264,7 +8264,7 @@
         <v>0.55558694</v>
       </c>
       <c r="X90" t="n">
-        <v>0.52591675</v>
+        <v>0.5246345</v>
       </c>
       <c r="Y90" t="n">
         <v>87</v>
@@ -8344,7 +8344,7 @@
         <v>0.550827553333333</v>
       </c>
       <c r="X91" t="n">
-        <v>0.52353265</v>
+        <v>0.5226894</v>
       </c>
       <c r="Y91" t="n">
         <v>88</v>
@@ -8518,7 +8518,7 @@
         <v>0.907338753333333</v>
       </c>
       <c r="X2" t="n">
-        <v>0.91488075</v>
+        <v>0.9159912</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -8598,13 +8598,13 @@
         <v>0.907288666666667</v>
       </c>
       <c r="X3" t="n">
-        <v>0.91481085</v>
+        <v>0.915987</v>
       </c>
       <c r="Y3" t="n">
         <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -8678,13 +8678,13 @@
         <v>0.90731232</v>
       </c>
       <c r="X4" t="n">
-        <v>0.91484495</v>
+        <v>0.915987</v>
       </c>
       <c r="Y4" t="n">
         <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -8758,7 +8758,7 @@
         <v>0.907337546666667</v>
       </c>
       <c r="X5" t="n">
-        <v>0.91488055</v>
+        <v>0.91599</v>
       </c>
       <c r="Y5" t="n">
         <v>14</v>
@@ -8838,13 +8838,13 @@
         <v>0.907291793333333</v>
       </c>
       <c r="X6" t="n">
-        <v>0.91481125</v>
+        <v>0.9159866</v>
       </c>
       <c r="Y6" t="n">
         <v>25</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -8918,13 +8918,13 @@
         <v>0.907303433333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.91487625</v>
+        <v>0.915987</v>
       </c>
       <c r="Y7" t="n">
         <v>20</v>
       </c>
       <c r="Z7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -8998,7 +8998,7 @@
         <v>0.90732938</v>
       </c>
       <c r="X8" t="n">
-        <v>0.91488035</v>
+        <v>0.91599</v>
       </c>
       <c r="Y8" t="n">
         <v>18</v>
@@ -9078,13 +9078,13 @@
         <v>0.907279086666667</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9147997</v>
+        <v>0.9159866</v>
       </c>
       <c r="Y9" t="n">
         <v>28</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -9158,13 +9158,13 @@
         <v>0.907299873333333</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9148431</v>
+        <v>0.915987</v>
       </c>
       <c r="Y10" t="n">
         <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -9238,7 +9238,7 @@
         <v>0.90721426</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9145025</v>
+        <v>0.9152343</v>
       </c>
       <c r="Y11" t="n">
         <v>35</v>
@@ -9318,13 +9318,13 @@
         <v>0.907259726666667</v>
       </c>
       <c r="X12" t="n">
-        <v>0.91479365</v>
+        <v>0.915987</v>
       </c>
       <c r="Y12" t="n">
         <v>33</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -9398,13 +9398,13 @@
         <v>0.90729384</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9148108</v>
+        <v>0.9159883</v>
       </c>
       <c r="Y13" t="n">
         <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -9478,13 +9478,13 @@
         <v>0.907166493333333</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9142208</v>
+        <v>0.9146731</v>
       </c>
       <c r="Y14" t="n">
         <v>36</v>
       </c>
       <c r="Z14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -9558,13 +9558,13 @@
         <v>0.907259673333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.91479365</v>
+        <v>0.915987</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -9638,13 +9638,13 @@
         <v>0.907303173333333</v>
       </c>
       <c r="X16" t="n">
-        <v>0.91480785</v>
+        <v>0.9159891</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -9718,13 +9718,13 @@
         <v>0.90716526</v>
       </c>
       <c r="X17" t="n">
-        <v>0.9142114</v>
+        <v>0.9146797</v>
       </c>
       <c r="Y17" t="n">
         <v>37</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -9798,7 +9798,7 @@
         <v>0.907044813333333</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9145164</v>
+        <v>0.9154321</v>
       </c>
       <c r="Y18" t="n">
         <v>52</v>
@@ -9878,13 +9878,13 @@
         <v>0.907329926666667</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9148145</v>
+        <v>0.9159883</v>
       </c>
       <c r="Y19" t="n">
         <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -9958,13 +9958,13 @@
         <v>0.907165166666667</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9142114</v>
+        <v>0.9146797</v>
       </c>
       <c r="Y20" t="n">
         <v>38</v>
       </c>
       <c r="Z20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -10038,7 +10038,7 @@
         <v>0.907046246666667</v>
       </c>
       <c r="X21" t="n">
-        <v>0.91451615</v>
+        <v>0.9154305</v>
       </c>
       <c r="Y21" t="n">
         <v>50</v>
@@ -10118,13 +10118,13 @@
         <v>0.9073379</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9148468</v>
+        <v>0.915987</v>
       </c>
       <c r="Y22" t="n">
         <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -10198,7 +10198,7 @@
         <v>0.907147813333333</v>
       </c>
       <c r="X23" t="n">
-        <v>0.91409645</v>
+        <v>0.9144498</v>
       </c>
       <c r="Y23" t="n">
         <v>47</v>
@@ -10278,7 +10278,7 @@
         <v>0.907046246666667</v>
       </c>
       <c r="X24" t="n">
-        <v>0.91451615</v>
+        <v>0.9154305</v>
       </c>
       <c r="Y24" t="n">
         <v>51</v>
@@ -10358,13 +10358,13 @@
         <v>0.907331846666667</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9148145</v>
+        <v>0.9159883</v>
       </c>
       <c r="Y25" t="n">
         <v>16</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -10438,7 +10438,7 @@
         <v>0.907148633333333</v>
       </c>
       <c r="X26" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="Y26" t="n">
         <v>45</v>
@@ -10518,7 +10518,7 @@
         <v>0.90701932</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9143946</v>
+        <v>0.9151874</v>
       </c>
       <c r="Y27" t="n">
         <v>53</v>
@@ -10598,13 +10598,13 @@
         <v>0.907337166666667</v>
       </c>
       <c r="X28" t="n">
-        <v>0.91482465</v>
+        <v>0.915987</v>
       </c>
       <c r="Y28" t="n">
         <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -10678,7 +10678,7 @@
         <v>0.907148633333333</v>
       </c>
       <c r="X29" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="Y29" t="n">
         <v>46</v>
@@ -10758,7 +10758,7 @@
         <v>0.907011906666667</v>
       </c>
       <c r="X30" t="n">
-        <v>0.9143917</v>
+        <v>0.9151816</v>
       </c>
       <c r="Y30" t="n">
         <v>56</v>
@@ -10838,13 +10838,13 @@
         <v>0.907343153333333</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9148369</v>
+        <v>0.9159895</v>
       </c>
       <c r="Y31" t="n">
         <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -10918,7 +10918,7 @@
         <v>0.907148813333333</v>
       </c>
       <c r="X32" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="Y32" t="n">
         <v>39</v>
@@ -10998,7 +10998,7 @@
         <v>0.907012673333333</v>
       </c>
       <c r="X33" t="n">
-        <v>0.91439295</v>
+        <v>0.9151841</v>
       </c>
       <c r="Y33" t="n">
         <v>54</v>
@@ -11078,13 +11078,13 @@
         <v>0.90734738</v>
       </c>
       <c r="X34" t="n">
-        <v>0.91483715</v>
+        <v>0.91599</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -11158,7 +11158,7 @@
         <v>0.907148813333333</v>
       </c>
       <c r="X35" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="Y35" t="n">
         <v>40</v>
@@ -11238,7 +11238,7 @@
         <v>0.907012566666667</v>
       </c>
       <c r="X36" t="n">
-        <v>0.91439335</v>
+        <v>0.9151849</v>
       </c>
       <c r="Y36" t="n">
         <v>55</v>
@@ -11318,13 +11318,13 @@
         <v>0.90735514</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9148379</v>
+        <v>0.91599</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -11398,7 +11398,7 @@
         <v>0.907148813333333</v>
       </c>
       <c r="X38" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="Y38" t="n">
         <v>41</v>
@@ -11478,7 +11478,7 @@
         <v>0.908204093333333</v>
       </c>
       <c r="X39" t="n">
-        <v>0.91538205</v>
+        <v>0.9169848</v>
       </c>
       <c r="Y39" t="n">
         <v>1</v>
@@ -11558,13 +11558,13 @@
         <v>0.907298486666667</v>
       </c>
       <c r="X40" t="n">
-        <v>0.91483705</v>
+        <v>0.9159887</v>
       </c>
       <c r="Y40" t="n">
         <v>23</v>
       </c>
       <c r="Z40" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -11638,7 +11638,7 @@
         <v>0.907148813333333</v>
       </c>
       <c r="X41" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="Y41" t="n">
         <v>42</v>
@@ -11718,7 +11718,7 @@
         <v>0.90819682</v>
       </c>
       <c r="X42" t="n">
-        <v>0.91533675</v>
+        <v>0.9168966</v>
       </c>
       <c r="Y42" t="n">
         <v>2</v>
@@ -11798,13 +11798,13 @@
         <v>0.907285306666667</v>
       </c>
       <c r="X43" t="n">
-        <v>0.9148359</v>
+        <v>0.9159879</v>
       </c>
       <c r="Y43" t="n">
         <v>27</v>
       </c>
       <c r="Z43" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -11878,7 +11878,7 @@
         <v>0.907148813333333</v>
       </c>
       <c r="X44" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="Y44" t="n">
         <v>43</v>
@@ -11958,7 +11958,7 @@
         <v>0.90819672</v>
       </c>
       <c r="X45" t="n">
-        <v>0.9153351</v>
+        <v>0.9168933</v>
       </c>
       <c r="Y45" t="n">
         <v>3</v>
@@ -12038,13 +12038,13 @@
         <v>0.90727652</v>
       </c>
       <c r="X46" t="n">
-        <v>0.9148238</v>
+        <v>0.9159853</v>
       </c>
       <c r="Y46" t="n">
         <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -12118,7 +12118,7 @@
         <v>0.907148813333333</v>
       </c>
       <c r="X47" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="Y47" t="n">
         <v>44</v>
@@ -12198,7 +12198,7 @@
         <v>0.908171893333333</v>
       </c>
       <c r="X48" t="n">
-        <v>0.9151711</v>
+        <v>0.9165769</v>
       </c>
       <c r="Y48" t="n">
         <v>4</v>
@@ -12278,13 +12278,13 @@
         <v>0.907269766666667</v>
       </c>
       <c r="X49" t="n">
-        <v>0.91481325</v>
+        <v>0.9159858</v>
       </c>
       <c r="Y49" t="n">
         <v>30</v>
       </c>
       <c r="Z49" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -12358,7 +12358,7 @@
         <v>0.907074086666667</v>
       </c>
       <c r="X50" t="n">
-        <v>0.913897</v>
+        <v>0.9140509</v>
       </c>
       <c r="Y50" t="n">
         <v>48</v>
@@ -12438,13 +12438,13 @@
         <v>0.908121753333333</v>
       </c>
       <c r="X51" t="n">
-        <v>0.91479505</v>
+        <v>0.9158248</v>
       </c>
       <c r="Y51" t="n">
         <v>5</v>
       </c>
       <c r="Z51" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -12518,13 +12518,13 @@
         <v>0.907264353333333</v>
       </c>
       <c r="X52" t="n">
-        <v>0.9148084</v>
+        <v>0.9159858</v>
       </c>
       <c r="Y52" t="n">
         <v>31</v>
       </c>
       <c r="Z52" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
@@ -12598,7 +12598,7 @@
         <v>0.907074086666667</v>
       </c>
       <c r="X53" t="n">
-        <v>0.913897</v>
+        <v>0.9140509</v>
       </c>
       <c r="Y53" t="n">
         <v>49</v>
@@ -12678,7 +12678,7 @@
         <v>0.908121533333333</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9147934</v>
+        <v>0.9158215</v>
       </c>
       <c r="Y54" t="n">
         <v>6</v>
@@ -12758,7 +12758,7 @@
         <v>0.90726048</v>
       </c>
       <c r="X55" t="n">
-        <v>0.91480245</v>
+        <v>0.9159858</v>
       </c>
       <c r="Y55" t="n">
         <v>32</v>
@@ -12838,13 +12838,13 @@
         <v>0.907439473333333</v>
       </c>
       <c r="X56" t="n">
-        <v>0.91485475</v>
+        <v>0.9159723</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
       </c>
       <c r="Z56" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -12918,7 +12918,7 @@
         <v>0.90026168</v>
       </c>
       <c r="X57" t="n">
-        <v>0.9131717</v>
+        <v>0.9137603</v>
       </c>
       <c r="Y57" t="n">
         <v>57</v>
@@ -12998,7 +12998,7 @@
         <v>0.8724341</v>
       </c>
       <c r="X58" t="n">
-        <v>0.9089876</v>
+        <v>0.909828</v>
       </c>
       <c r="Y58" t="n">
         <v>59</v>
@@ -13078,7 +13078,7 @@
         <v>0.846631273333333</v>
       </c>
       <c r="X59" t="n">
-        <v>0.89063845</v>
+        <v>0.903783</v>
       </c>
       <c r="Y59" t="n">
         <v>61</v>
@@ -13158,7 +13158,7 @@
         <v>0.828071906666667</v>
       </c>
       <c r="X60" t="n">
-        <v>0.8653467</v>
+        <v>0.8852721</v>
       </c>
       <c r="Y60" t="n">
         <v>64</v>
@@ -13238,13 +13238,13 @@
         <v>0.810696186666667</v>
       </c>
       <c r="X61" t="n">
-        <v>0.84150025</v>
+        <v>0.8723043</v>
       </c>
       <c r="Y61" t="n">
         <v>66</v>
       </c>
       <c r="Z61" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -13318,7 +13318,7 @@
         <v>0.789760013333333</v>
       </c>
       <c r="X62" t="n">
-        <v>0.82386835</v>
+        <v>0.8579767</v>
       </c>
       <c r="Y62" t="n">
         <v>68</v>
@@ -13398,7 +13398,7 @@
         <v>0.76931954</v>
       </c>
       <c r="X63" t="n">
-        <v>0.80176985</v>
+        <v>0.8342202</v>
       </c>
       <c r="Y63" t="n">
         <v>70</v>
@@ -13478,7 +13478,7 @@
         <v>0.751601513333333</v>
       </c>
       <c r="X64" t="n">
-        <v>0.77776445</v>
+        <v>0.8039274</v>
       </c>
       <c r="Y64" t="n">
         <v>72</v>
@@ -13558,7 +13558,7 @@
         <v>0.732906913333333</v>
       </c>
       <c r="X65" t="n">
-        <v>0.75536125</v>
+        <v>0.7622309</v>
       </c>
       <c r="Y65" t="n">
         <v>74</v>
@@ -13638,7 +13638,7 @@
         <v>0.71542662</v>
       </c>
       <c r="X66" t="n">
-        <v>0.71926205</v>
+        <v>0.7224301</v>
       </c>
       <c r="Y66" t="n">
         <v>76</v>
@@ -13718,7 +13718,7 @@
         <v>0.699909946666667</v>
       </c>
       <c r="X67" t="n">
-        <v>0.6925643</v>
+        <v>0.6852187</v>
       </c>
       <c r="Y67" t="n">
         <v>78</v>
@@ -13798,7 +13798,7 @@
         <v>0.690962933333333</v>
       </c>
       <c r="X68" t="n">
-        <v>0.67972325</v>
+        <v>0.6684836</v>
       </c>
       <c r="Y68" t="n">
         <v>81</v>
@@ -13878,7 +13878,7 @@
         <v>0.6827291</v>
       </c>
       <c r="X69" t="n">
-        <v>0.6628125</v>
+        <v>0.6529183</v>
       </c>
       <c r="Y69" t="n">
         <v>83</v>
@@ -13958,7 +13958,7 @@
         <v>0.674776893333333</v>
       </c>
       <c r="X70" t="n">
-        <v>0.6450339</v>
+        <v>0.6390344</v>
       </c>
       <c r="Y70" t="n">
         <v>85</v>
@@ -14038,7 +14038,7 @@
         <v>0.667770106666667</v>
       </c>
       <c r="X71" t="n">
-        <v>0.63136645</v>
+        <v>0.6250071</v>
       </c>
       <c r="Y71" t="n">
         <v>87</v>
@@ -14118,7 +14118,7 @@
         <v>0.659013306666667</v>
       </c>
       <c r="X72" t="n">
-        <v>0.6126509</v>
+        <v>0.6065475</v>
       </c>
       <c r="Y72" t="n">
         <v>89</v>
@@ -14198,7 +14198,7 @@
         <v>0.65336484</v>
       </c>
       <c r="X73" t="n">
-        <v>0.60414845</v>
+        <v>0.6002974</v>
       </c>
       <c r="Y73" t="n">
         <v>90</v>
@@ -14278,13 +14278,13 @@
         <v>0.90744096</v>
       </c>
       <c r="X74" t="n">
-        <v>0.9148555</v>
+        <v>0.9159727</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
       </c>
       <c r="Z74" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -14358,7 +14358,7 @@
         <v>0.899059613333333</v>
       </c>
       <c r="X75" t="n">
-        <v>0.91348785</v>
+        <v>0.9137621</v>
       </c>
       <c r="Y75" t="n">
         <v>58</v>
@@ -14438,7 +14438,7 @@
         <v>0.871351006666667</v>
       </c>
       <c r="X76" t="n">
-        <v>0.90812815</v>
+        <v>0.9086165</v>
       </c>
       <c r="Y76" t="n">
         <v>60</v>
@@ -14518,7 +14518,7 @@
         <v>0.846597286666667</v>
       </c>
       <c r="X77" t="n">
-        <v>0.8898164</v>
+        <v>0.9021372</v>
       </c>
       <c r="Y77" t="n">
         <v>62</v>
@@ -14598,7 +14598,7 @@
         <v>0.828385573333333</v>
       </c>
       <c r="X78" t="n">
-        <v>0.8653176</v>
+        <v>0.8852721</v>
       </c>
       <c r="Y78" t="n">
         <v>63</v>
@@ -14678,13 +14678,13 @@
         <v>0.811856993333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.8420625</v>
+        <v>0.872268</v>
       </c>
       <c r="Y79" t="n">
         <v>65</v>
       </c>
       <c r="Z79" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80">
@@ -14758,7 +14758,7 @@
         <v>0.792847953333333</v>
       </c>
       <c r="X80" t="n">
-        <v>0.82740595</v>
+        <v>0.8619639</v>
       </c>
       <c r="Y80" t="n">
         <v>67</v>
@@ -14838,7 +14838,7 @@
         <v>0.773531166666667</v>
       </c>
       <c r="X81" t="n">
-        <v>0.8063732</v>
+        <v>0.8392152</v>
       </c>
       <c r="Y81" t="n">
         <v>69</v>
@@ -14918,7 +14918,7 @@
         <v>0.756097086666667</v>
       </c>
       <c r="X82" t="n">
-        <v>0.7816531</v>
+        <v>0.8072091</v>
       </c>
       <c r="Y82" t="n">
         <v>71</v>
@@ -14998,7 +14998,7 @@
         <v>0.739667326666667</v>
       </c>
       <c r="X83" t="n">
-        <v>0.76381255</v>
+        <v>0.7788438</v>
       </c>
       <c r="Y83" t="n">
         <v>73</v>
@@ -15078,7 +15078,7 @@
         <v>0.723158306666667</v>
       </c>
       <c r="X84" t="n">
-        <v>0.73871305</v>
+        <v>0.739575</v>
       </c>
       <c r="Y84" t="n">
         <v>75</v>
@@ -15158,7 +15158,7 @@
         <v>0.7074879</v>
       </c>
       <c r="X85" t="n">
-        <v>0.70340995</v>
+        <v>0.699332</v>
       </c>
       <c r="Y85" t="n">
         <v>77</v>
@@ -15238,7 +15238,7 @@
         <v>0.698864126666667</v>
       </c>
       <c r="X86" t="n">
-        <v>0.69287</v>
+        <v>0.6868759</v>
       </c>
       <c r="Y86" t="n">
         <v>79</v>
@@ -15318,7 +15318,7 @@
         <v>0.69110586</v>
       </c>
       <c r="X87" t="n">
-        <v>0.68147875</v>
+        <v>0.6718516</v>
       </c>
       <c r="Y87" t="n">
         <v>80</v>
@@ -15398,7 +15398,7 @@
         <v>0.683966386666667</v>
       </c>
       <c r="X88" t="n">
-        <v>0.6668762</v>
+        <v>0.6607248</v>
       </c>
       <c r="Y88" t="n">
         <v>82</v>
@@ -15478,7 +15478,7 @@
         <v>0.676430733333333</v>
       </c>
       <c r="X89" t="n">
-        <v>0.6496003</v>
+        <v>0.6451906</v>
       </c>
       <c r="Y89" t="n">
         <v>84</v>
@@ -15558,7 +15558,7 @@
         <v>0.668094493333333</v>
       </c>
       <c r="X90" t="n">
-        <v>0.63224165</v>
+        <v>0.6256989</v>
       </c>
       <c r="Y90" t="n">
         <v>86</v>
@@ -15638,7 +15638,7 @@
         <v>0.66204402</v>
       </c>
       <c r="X91" t="n">
-        <v>0.62007685</v>
+        <v>0.615774</v>
       </c>
       <c r="Y91" t="n">
         <v>88</v>
@@ -15812,13 +15812,13 @@
         <v>0.92906686</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9412983</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -15892,13 +15892,13 @@
         <v>0.928965333333333</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9412973</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y3" t="n">
         <v>33</v>
       </c>
       <c r="Z3" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -15972,13 +15972,13 @@
         <v>0.928991786666667</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y4" t="n">
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -16052,13 +16052,13 @@
         <v>0.929065393333333</v>
       </c>
       <c r="X5" t="n">
-        <v>0.941296</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -16132,13 +16132,13 @@
         <v>0.92896818</v>
       </c>
       <c r="X6" t="n">
-        <v>0.94129775</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y6" t="n">
         <v>31</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -16212,13 +16212,13 @@
         <v>0.928979593333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y7" t="n">
         <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -16292,13 +16292,13 @@
         <v>0.92906116</v>
       </c>
       <c r="X8" t="n">
-        <v>0.941296</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -16372,13 +16372,13 @@
         <v>0.928961753333333</v>
       </c>
       <c r="X9" t="n">
-        <v>0.94129775</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y9" t="n">
         <v>36</v>
       </c>
       <c r="Z9" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -16452,13 +16452,13 @@
         <v>0.92898346</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y10" t="n">
         <v>27</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -16532,13 +16532,13 @@
         <v>0.928992133333333</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9412973</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y11" t="n">
         <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -16612,13 +16612,13 @@
         <v>0.92894258</v>
       </c>
       <c r="X12" t="n">
-        <v>0.94129785</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y12" t="n">
         <v>46</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -16692,13 +16692,13 @@
         <v>0.92899766</v>
       </c>
       <c r="X13" t="n">
-        <v>0.94129765</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y13" t="n">
         <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -16772,13 +16772,13 @@
         <v>0.928966146666667</v>
       </c>
       <c r="X14" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y14" t="n">
         <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -16852,13 +16852,13 @@
         <v>0.928942573333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.94129785</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y15" t="n">
         <v>47</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -16932,13 +16932,13 @@
         <v>0.929011053333333</v>
       </c>
       <c r="X16" t="n">
-        <v>0.94129795</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -17012,13 +17012,13 @@
         <v>0.928965313333333</v>
       </c>
       <c r="X17" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y17" t="n">
         <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -17092,13 +17092,13 @@
         <v>0.928746913333333</v>
       </c>
       <c r="X18" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y18" t="n">
         <v>52</v>
       </c>
       <c r="Z18" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -17172,13 +17172,13 @@
         <v>0.9290338</v>
       </c>
       <c r="X19" t="n">
-        <v>0.94129765</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -17252,13 +17252,13 @@
         <v>0.928965266666667</v>
       </c>
       <c r="X20" t="n">
-        <v>0.94129825</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y20" t="n">
         <v>35</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -17332,13 +17332,13 @@
         <v>0.92874748</v>
       </c>
       <c r="X21" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y21" t="n">
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -17412,13 +17412,13 @@
         <v>0.929019346666667</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y22" t="n">
         <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -17492,13 +17492,13 @@
         <v>0.92895636</v>
       </c>
       <c r="X23" t="n">
-        <v>0.94129825</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y23" t="n">
         <v>37</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -17572,13 +17572,13 @@
         <v>0.928747493333333</v>
       </c>
       <c r="X24" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y24" t="n">
         <v>50</v>
       </c>
       <c r="Z24" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -17652,13 +17652,13 @@
         <v>0.929031506666667</v>
       </c>
       <c r="X25" t="n">
-        <v>0.94129765</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y25" t="n">
         <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -17732,13 +17732,13 @@
         <v>0.92895598</v>
       </c>
       <c r="X26" t="n">
-        <v>0.94129825</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y26" t="n">
         <v>44</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -17812,13 +17812,13 @@
         <v>0.928694406666667</v>
       </c>
       <c r="X27" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y27" t="n">
         <v>53</v>
       </c>
       <c r="Z27" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -17892,13 +17892,13 @@
         <v>0.929021313333333</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y28" t="n">
         <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -17972,13 +17972,13 @@
         <v>0.92895598</v>
       </c>
       <c r="X29" t="n">
-        <v>0.94129825</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y29" t="n">
         <v>45</v>
       </c>
       <c r="Z29" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -18052,13 +18052,13 @@
         <v>0.92868882</v>
       </c>
       <c r="X30" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y30" t="n">
         <v>56</v>
       </c>
       <c r="Z30" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -18132,13 +18132,13 @@
         <v>0.9290227</v>
       </c>
       <c r="X31" t="n">
-        <v>0.94129785</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y31" t="n">
         <v>14</v>
       </c>
       <c r="Z31" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -18212,13 +18212,13 @@
         <v>0.928956086666667</v>
       </c>
       <c r="X32" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y32" t="n">
         <v>38</v>
       </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -18292,13 +18292,13 @@
         <v>0.928689186666667</v>
       </c>
       <c r="X33" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y33" t="n">
         <v>54</v>
       </c>
       <c r="Z33" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -18372,13 +18372,13 @@
         <v>0.9290217</v>
       </c>
       <c r="X34" t="n">
-        <v>0.94129795</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y34" t="n">
         <v>15</v>
       </c>
       <c r="Z34" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -18452,13 +18452,13 @@
         <v>0.928956086666667</v>
       </c>
       <c r="X35" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y35" t="n">
         <v>39</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
@@ -18532,13 +18532,13 @@
         <v>0.928688873333333</v>
       </c>
       <c r="X36" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="Y36" t="n">
         <v>55</v>
       </c>
       <c r="Z36" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -18612,13 +18612,13 @@
         <v>0.929020866666667</v>
       </c>
       <c r="X37" t="n">
-        <v>0.94129795</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y37" t="n">
         <v>17</v>
       </c>
       <c r="Z37" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -18692,13 +18692,13 @@
         <v>0.928956086666667</v>
       </c>
       <c r="X38" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y38" t="n">
         <v>40</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
@@ -18772,7 +18772,7 @@
         <v>0.929667933333333</v>
       </c>
       <c r="X39" t="n">
-        <v>0.9423175</v>
+        <v>0.9440427</v>
       </c>
       <c r="Y39" t="n">
         <v>1</v>
@@ -18852,13 +18852,13 @@
         <v>0.928995513333333</v>
       </c>
       <c r="X40" t="n">
-        <v>0.94129765</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y40" t="n">
         <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -18932,13 +18932,13 @@
         <v>0.928956086666667</v>
       </c>
       <c r="X41" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y41" t="n">
         <v>41</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
@@ -19012,7 +19012,7 @@
         <v>0.929660626666667</v>
       </c>
       <c r="X42" t="n">
-        <v>0.9423175</v>
+        <v>0.9440427</v>
       </c>
       <c r="Y42" t="n">
         <v>3</v>
@@ -19092,13 +19092,13 @@
         <v>0.92898726</v>
       </c>
       <c r="X43" t="n">
-        <v>0.9412974</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y43" t="n">
         <v>26</v>
       </c>
       <c r="Z43" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -19172,13 +19172,13 @@
         <v>0.928956086666667</v>
       </c>
       <c r="X44" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y44" t="n">
         <v>42</v>
       </c>
       <c r="Z44" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
@@ -19252,7 +19252,7 @@
         <v>0.929660753333333</v>
       </c>
       <c r="X45" t="n">
-        <v>0.9423175</v>
+        <v>0.9440427</v>
       </c>
       <c r="Y45" t="n">
         <v>2</v>
@@ -19332,13 +19332,13 @@
         <v>0.928981613333333</v>
       </c>
       <c r="X46" t="n">
-        <v>0.94129675</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y46" t="n">
         <v>28</v>
       </c>
       <c r="Z46" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -19412,13 +19412,13 @@
         <v>0.928956086666667</v>
       </c>
       <c r="X47" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y47" t="n">
         <v>43</v>
       </c>
       <c r="Z47" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
@@ -19492,7 +19492,7 @@
         <v>0.92964796</v>
       </c>
       <c r="X48" t="n">
-        <v>0.94231705</v>
+        <v>0.9440427</v>
       </c>
       <c r="Y48" t="n">
         <v>4</v>
@@ -19572,13 +19572,13 @@
         <v>0.928990293333333</v>
       </c>
       <c r="X49" t="n">
-        <v>0.941297</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y49" t="n">
         <v>24</v>
       </c>
       <c r="Z49" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
@@ -19652,13 +19652,13 @@
         <v>0.928917833333333</v>
       </c>
       <c r="X50" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y50" t="n">
         <v>48</v>
       </c>
       <c r="Z50" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -19732,7 +19732,7 @@
         <v>0.929598226666667</v>
       </c>
       <c r="X51" t="n">
-        <v>0.94203905</v>
+        <v>0.9434867</v>
       </c>
       <c r="Y51" t="n">
         <v>5</v>
@@ -19812,13 +19812,13 @@
         <v>0.928977386666667</v>
       </c>
       <c r="X52" t="n">
-        <v>0.941297</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y52" t="n">
         <v>30</v>
       </c>
       <c r="Z52" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
@@ -19892,13 +19892,13 @@
         <v>0.928917833333333</v>
       </c>
       <c r="X53" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="Y53" t="n">
         <v>49</v>
       </c>
       <c r="Z53" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -19972,7 +19972,7 @@
         <v>0.929598113333333</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9420382</v>
+        <v>0.943485</v>
       </c>
       <c r="Y54" t="n">
         <v>6</v>
@@ -20052,13 +20052,13 @@
         <v>0.928988646666667</v>
       </c>
       <c r="X55" t="n">
-        <v>0.941297</v>
+        <v>0.9428095</v>
       </c>
       <c r="Y55" t="n">
         <v>25</v>
       </c>
       <c r="Z55" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
@@ -20132,13 +20132,13 @@
         <v>0.929085733333333</v>
       </c>
       <c r="X56" t="n">
-        <v>0.9412982</v>
+        <v>0.9428186</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
       </c>
       <c r="Z56" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -20212,13 +20212,13 @@
         <v>0.925393253333333</v>
       </c>
       <c r="X57" t="n">
-        <v>0.9387238</v>
+        <v>0.940132</v>
       </c>
       <c r="Y57" t="n">
         <v>57</v>
       </c>
       <c r="Z57" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
@@ -20292,7 +20292,7 @@
         <v>0.910607693333333</v>
       </c>
       <c r="X58" t="n">
-        <v>0.9300838</v>
+        <v>0.932535</v>
       </c>
       <c r="Y58" t="n">
         <v>59</v>
@@ -20372,7 +20372,7 @@
         <v>0.883357326666667</v>
       </c>
       <c r="X59" t="n">
-        <v>0.9237744</v>
+        <v>0.9258499</v>
       </c>
       <c r="Y59" t="n">
         <v>62</v>
@@ -20452,13 +20452,13 @@
         <v>0.867589226666667</v>
       </c>
       <c r="X60" t="n">
-        <v>0.9122241</v>
+        <v>0.9199686</v>
       </c>
       <c r="Y60" t="n">
         <v>64</v>
       </c>
       <c r="Z60" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
@@ -20532,13 +20532,13 @@
         <v>0.854850033333333</v>
       </c>
       <c r="X61" t="n">
-        <v>0.8986422</v>
+        <v>0.9133103</v>
       </c>
       <c r="Y61" t="n">
         <v>66</v>
       </c>
       <c r="Z61" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -20612,7 +20612,7 @@
         <v>0.84005682</v>
       </c>
       <c r="X62" t="n">
-        <v>0.8836957</v>
+        <v>0.9059542</v>
       </c>
       <c r="Y62" t="n">
         <v>68</v>
@@ -20692,7 +20692,7 @@
         <v>0.824754086666667</v>
       </c>
       <c r="X63" t="n">
-        <v>0.867503</v>
+        <v>0.8938119</v>
       </c>
       <c r="Y63" t="n">
         <v>70</v>
@@ -20772,7 +20772,7 @@
         <v>0.809417233333333</v>
       </c>
       <c r="X64" t="n">
-        <v>0.8470694</v>
+        <v>0.8782475</v>
       </c>
       <c r="Y64" t="n">
         <v>72</v>
@@ -20852,7 +20852,7 @@
         <v>0.79267434</v>
       </c>
       <c r="X65" t="n">
-        <v>0.8247439</v>
+        <v>0.8568135</v>
       </c>
       <c r="Y65" t="n">
         <v>74</v>
@@ -20932,7 +20932,7 @@
         <v>0.776760766666667</v>
       </c>
       <c r="X66" t="n">
-        <v>0.81080275</v>
+        <v>0.8330695</v>
       </c>
       <c r="Y66" t="n">
         <v>76</v>
@@ -21012,7 +21012,7 @@
         <v>0.762374073333333</v>
       </c>
       <c r="X67" t="n">
-        <v>0.79965635</v>
+        <v>0.8116691</v>
       </c>
       <c r="Y67" t="n">
         <v>78</v>
@@ -21092,7 +21092,7 @@
         <v>0.75394006</v>
       </c>
       <c r="X68" t="n">
-        <v>0.7878382</v>
+        <v>0.7878718</v>
       </c>
       <c r="Y68" t="n">
         <v>81</v>
@@ -21172,7 +21172,7 @@
         <v>0.745856106666667</v>
       </c>
       <c r="X69" t="n">
-        <v>0.77608385</v>
+        <v>0.7862706</v>
       </c>
       <c r="Y69" t="n">
         <v>83</v>
@@ -21252,7 +21252,7 @@
         <v>0.737442186666667</v>
       </c>
       <c r="X70" t="n">
-        <v>0.75579525</v>
+        <v>0.7705848</v>
       </c>
       <c r="Y70" t="n">
         <v>85</v>
@@ -21332,7 +21332,7 @@
         <v>0.7297925</v>
       </c>
       <c r="X71" t="n">
-        <v>0.74054455</v>
+        <v>0.7512966</v>
       </c>
       <c r="Y71" t="n">
         <v>87</v>
@@ -21412,7 +21412,7 @@
         <v>0.718818726666667</v>
       </c>
       <c r="X72" t="n">
-        <v>0.71876055</v>
+        <v>0.7187024</v>
       </c>
       <c r="Y72" t="n">
         <v>89</v>
@@ -21492,7 +21492,7 @@
         <v>0.71237478</v>
       </c>
       <c r="X73" t="n">
-        <v>0.70912425</v>
+        <v>0.7058737</v>
       </c>
       <c r="Y73" t="n">
         <v>90</v>
@@ -21572,7 +21572,7 @@
         <v>0.92908642</v>
       </c>
       <c r="X74" t="n">
-        <v>0.94130695</v>
+        <v>0.9428359</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -21652,13 +21652,13 @@
         <v>0.924776886666667</v>
       </c>
       <c r="X75" t="n">
-        <v>0.9384486</v>
+        <v>0.9403039</v>
       </c>
       <c r="Y75" t="n">
         <v>58</v>
       </c>
       <c r="Z75" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76">
@@ -21732,7 +21732,7 @@
         <v>0.909885713333333</v>
       </c>
       <c r="X76" t="n">
-        <v>0.9297514</v>
+        <v>0.9319091</v>
       </c>
       <c r="Y76" t="n">
         <v>60</v>
@@ -21812,7 +21812,7 @@
         <v>0.883675966666667</v>
       </c>
       <c r="X77" t="n">
-        <v>0.92378495</v>
+        <v>0.9258708</v>
       </c>
       <c r="Y77" t="n">
         <v>61</v>
@@ -21892,13 +21892,13 @@
         <v>0.86812174</v>
       </c>
       <c r="X78" t="n">
-        <v>0.9122151</v>
+        <v>0.9199804</v>
       </c>
       <c r="Y78" t="n">
         <v>63</v>
       </c>
       <c r="Z78" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79">
@@ -21972,13 +21972,13 @@
         <v>0.855888133333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.8994449</v>
+        <v>0.9133044</v>
       </c>
       <c r="Y79" t="n">
         <v>65</v>
       </c>
       <c r="Z79" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80">
@@ -22052,7 +22052,7 @@
         <v>0.842616993333333</v>
       </c>
       <c r="X80" t="n">
-        <v>0.88595105</v>
+        <v>0.908012</v>
       </c>
       <c r="Y80" t="n">
         <v>67</v>
@@ -22132,7 +22132,7 @@
         <v>0.828471926666667</v>
       </c>
       <c r="X81" t="n">
-        <v>0.87083115</v>
+        <v>0.8963786</v>
       </c>
       <c r="Y81" t="n">
         <v>69</v>
@@ -22212,7 +22212,7 @@
         <v>0.814008773333333</v>
       </c>
       <c r="X82" t="n">
-        <v>0.85184155</v>
+        <v>0.8799341</v>
       </c>
       <c r="Y82" t="n">
         <v>71</v>
@@ -22292,7 +22292,7 @@
         <v>0.799165213333333</v>
       </c>
       <c r="X83" t="n">
-        <v>0.8322523</v>
+        <v>0.8653394</v>
       </c>
       <c r="Y83" t="n">
         <v>73</v>
@@ -22372,7 +22372,7 @@
         <v>0.784734346666667</v>
       </c>
       <c r="X84" t="n">
-        <v>0.81651995</v>
+        <v>0.844278</v>
       </c>
       <c r="Y84" t="n">
         <v>75</v>
@@ -22452,7 +22452,7 @@
         <v>0.770355446666667</v>
       </c>
       <c r="X85" t="n">
-        <v>0.80580165</v>
+        <v>0.8234394</v>
       </c>
       <c r="Y85" t="n">
         <v>77</v>
@@ -22532,7 +22532,7 @@
         <v>0.762365826666667</v>
       </c>
       <c r="X86" t="n">
-        <v>0.79764485</v>
+        <v>0.8075001</v>
       </c>
       <c r="Y86" t="n">
         <v>79</v>
@@ -22612,7 +22612,7 @@
         <v>0.75510004</v>
       </c>
       <c r="X87" t="n">
-        <v>0.7880045</v>
+        <v>0.7881353</v>
       </c>
       <c r="Y87" t="n">
         <v>80</v>
@@ -22692,7 +22692,7 @@
         <v>0.748004046666667</v>
       </c>
       <c r="X88" t="n">
-        <v>0.7779299</v>
+        <v>0.7867686</v>
       </c>
       <c r="Y88" t="n">
         <v>82</v>
@@ -22772,7 +22772,7 @@
         <v>0.740322413333333</v>
       </c>
       <c r="X89" t="n">
-        <v>0.76277545</v>
+        <v>0.777962</v>
       </c>
       <c r="Y89" t="n">
         <v>84</v>
@@ -22852,7 +22852,7 @@
         <v>0.730783706666667</v>
       </c>
       <c r="X90" t="n">
-        <v>0.741569</v>
+        <v>0.7523543</v>
       </c>
       <c r="Y90" t="n">
         <v>86</v>
@@ -22932,7 +22932,7 @@
         <v>0.72372628</v>
       </c>
       <c r="X91" t="n">
-        <v>0.72996735</v>
+        <v>0.7362084</v>
       </c>
       <c r="Y91" t="n">
         <v>88</v>
@@ -23106,13 +23106,13 @@
         <v>0.873997206666667</v>
       </c>
       <c r="X2" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y2" t="n">
         <v>37</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -23186,13 +23186,13 @@
         <v>0.8739779</v>
       </c>
       <c r="X3" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y3" t="n">
         <v>51</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -23266,13 +23266,13 @@
         <v>0.873969193333333</v>
       </c>
       <c r="X4" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y4" t="n">
         <v>64</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -23346,13 +23346,13 @@
         <v>0.873997206666667</v>
       </c>
       <c r="X5" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y5" t="n">
         <v>38</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -23426,13 +23426,13 @@
         <v>0.87399136</v>
       </c>
       <c r="X6" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y6" t="n">
         <v>43</v>
       </c>
       <c r="Z6" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -23506,13 +23506,13 @@
         <v>0.873969193333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y7" t="n">
         <v>65</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -23586,13 +23586,13 @@
         <v>0.873983026666667</v>
       </c>
       <c r="X8" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y8" t="n">
         <v>49</v>
       </c>
       <c r="Z8" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -23666,13 +23666,13 @@
         <v>0.87397716</v>
       </c>
       <c r="X9" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y9" t="n">
         <v>52</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -23746,13 +23746,13 @@
         <v>0.873968453333333</v>
       </c>
       <c r="X10" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y10" t="n">
         <v>66</v>
       </c>
       <c r="Z10" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -23826,13 +23826,13 @@
         <v>0.874014446666667</v>
       </c>
       <c r="X11" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y11" t="n">
         <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -23906,13 +23906,13 @@
         <v>0.87397716</v>
       </c>
       <c r="X12" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y12" t="n">
         <v>53</v>
       </c>
       <c r="Z12" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -23986,13 +23986,13 @@
         <v>0.87398598</v>
       </c>
       <c r="X13" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y13" t="n">
         <v>47</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -24066,13 +24066,13 @@
         <v>0.873986153333333</v>
       </c>
       <c r="X14" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y14" t="n">
         <v>44</v>
       </c>
       <c r="Z14" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -24146,13 +24146,13 @@
         <v>0.87397716</v>
       </c>
       <c r="X15" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y15" t="n">
         <v>54</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -24226,13 +24226,13 @@
         <v>0.87398598</v>
       </c>
       <c r="X16" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y16" t="n">
         <v>48</v>
       </c>
       <c r="Z16" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -24306,13 +24306,13 @@
         <v>0.873986153333333</v>
       </c>
       <c r="X17" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y17" t="n">
         <v>45</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -24386,13 +24386,13 @@
         <v>0.873925753333333</v>
       </c>
       <c r="X18" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y18" t="n">
         <v>73</v>
       </c>
       <c r="Z18" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -24466,13 +24466,13 @@
         <v>0.874011106666667</v>
       </c>
       <c r="X19" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y19" t="n">
         <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -24546,13 +24546,13 @@
         <v>0.873986153333333</v>
       </c>
       <c r="X20" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y20" t="n">
         <v>46</v>
       </c>
       <c r="Z20" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -24626,13 +24626,13 @@
         <v>0.873925753333333</v>
       </c>
       <c r="X21" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y21" t="n">
         <v>74</v>
       </c>
       <c r="Z21" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -24706,13 +24706,13 @@
         <v>0.87400928</v>
       </c>
       <c r="X22" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y22" t="n">
         <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -24786,13 +24786,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X23" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y23" t="n">
         <v>55</v>
       </c>
       <c r="Z23" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -24866,13 +24866,13 @@
         <v>0.873925753333333</v>
       </c>
       <c r="X24" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y24" t="n">
         <v>75</v>
       </c>
       <c r="Z24" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -24946,13 +24946,13 @@
         <v>0.874011106666667</v>
       </c>
       <c r="X25" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y25" t="n">
         <v>31</v>
       </c>
       <c r="Z25" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -25026,13 +25026,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X26" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y26" t="n">
         <v>56</v>
       </c>
       <c r="Z26" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -25106,13 +25106,13 @@
         <v>0.873893813333333</v>
       </c>
       <c r="X27" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y27" t="n">
         <v>76</v>
       </c>
       <c r="Z27" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -25186,13 +25186,13 @@
         <v>0.87400928</v>
       </c>
       <c r="X28" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y28" t="n">
         <v>33</v>
       </c>
       <c r="Z28" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -25266,13 +25266,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X29" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y29" t="n">
         <v>57</v>
       </c>
       <c r="Z29" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -25346,13 +25346,13 @@
         <v>0.873893813333333</v>
       </c>
       <c r="X30" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y30" t="n">
         <v>77</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -25426,13 +25426,13 @@
         <v>0.87400928</v>
       </c>
       <c r="X31" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -25506,13 +25506,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X32" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y32" t="n">
         <v>58</v>
       </c>
       <c r="Z32" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -25586,13 +25586,13 @@
         <v>0.873893813333333</v>
       </c>
       <c r="X33" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y33" t="n">
         <v>78</v>
       </c>
       <c r="Z33" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -25666,13 +25666,13 @@
         <v>0.87400928</v>
       </c>
       <c r="X34" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y34" t="n">
         <v>35</v>
       </c>
       <c r="Z34" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -25746,13 +25746,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X35" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y35" t="n">
         <v>59</v>
       </c>
       <c r="Z35" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -25826,13 +25826,13 @@
         <v>0.873893813333333</v>
       </c>
       <c r="X36" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y36" t="n">
         <v>79</v>
       </c>
       <c r="Z36" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -25906,13 +25906,13 @@
         <v>0.8739951</v>
       </c>
       <c r="X37" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y37" t="n">
         <v>39</v>
       </c>
       <c r="Z37" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -25986,13 +25986,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X38" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y38" t="n">
         <v>60</v>
       </c>
       <c r="Z38" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -26066,7 +26066,7 @@
         <v>0.865167886666667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.93130325</v>
+        <v>0.9315207</v>
       </c>
       <c r="Y39" t="n">
         <v>85</v>
@@ -26146,13 +26146,13 @@
         <v>0.87400928</v>
       </c>
       <c r="X40" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y40" t="n">
         <v>36</v>
       </c>
       <c r="Z40" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -26226,13 +26226,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X41" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y41" t="n">
         <v>61</v>
       </c>
       <c r="Z41" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -26306,7 +26306,7 @@
         <v>0.865155353333333</v>
       </c>
       <c r="X42" t="n">
-        <v>0.93130325</v>
+        <v>0.9315207</v>
       </c>
       <c r="Y42" t="n">
         <v>86</v>
@@ -26386,13 +26386,13 @@
         <v>0.8739951</v>
       </c>
       <c r="X43" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y43" t="n">
         <v>40</v>
       </c>
       <c r="Z43" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -26466,13 +26466,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X44" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y44" t="n">
         <v>62</v>
       </c>
       <c r="Z44" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -26546,7 +26546,7 @@
         <v>0.865155353333333</v>
       </c>
       <c r="X45" t="n">
-        <v>0.93130325</v>
+        <v>0.9315207</v>
       </c>
       <c r="Y45" t="n">
         <v>87</v>
@@ -26626,13 +26626,13 @@
         <v>0.8739951</v>
       </c>
       <c r="X46" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y46" t="n">
         <v>41</v>
       </c>
       <c r="Z46" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -26706,13 +26706,13 @@
         <v>0.87397202</v>
       </c>
       <c r="X47" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y47" t="n">
         <v>63</v>
       </c>
       <c r="Z47" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
@@ -26786,7 +26786,7 @@
         <v>0.86514282</v>
       </c>
       <c r="X48" t="n">
-        <v>0.93130325</v>
+        <v>0.9315207</v>
       </c>
       <c r="Y48" t="n">
         <v>88</v>
@@ -26866,13 +26866,13 @@
         <v>0.8739951</v>
       </c>
       <c r="X49" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y49" t="n">
         <v>42</v>
       </c>
       <c r="Z49" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -26946,13 +26946,13 @@
         <v>0.873927493333333</v>
       </c>
       <c r="X50" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y50" t="n">
         <v>71</v>
       </c>
       <c r="Z50" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
@@ -27026,7 +27026,7 @@
         <v>0.865095846666667</v>
       </c>
       <c r="X51" t="n">
-        <v>0.93130325</v>
+        <v>0.9315207</v>
       </c>
       <c r="Y51" t="n">
         <v>89</v>
@@ -27106,13 +27106,13 @@
         <v>0.87398164</v>
       </c>
       <c r="X52" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y52" t="n">
         <v>50</v>
       </c>
       <c r="Z52" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53">
@@ -27186,13 +27186,13 @@
         <v>0.873927493333333</v>
       </c>
       <c r="X53" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y53" t="n">
         <v>72</v>
       </c>
       <c r="Z53" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -27266,7 +27266,7 @@
         <v>0.865095846666667</v>
       </c>
       <c r="X54" t="n">
-        <v>0.93130325</v>
+        <v>0.9315207</v>
       </c>
       <c r="Y54" t="n">
         <v>90</v>
@@ -27346,13 +27346,13 @@
         <v>0.873967466666667</v>
       </c>
       <c r="X55" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y55" t="n">
         <v>67</v>
       </c>
       <c r="Z55" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
@@ -27426,13 +27426,13 @@
         <v>0.875396013333333</v>
       </c>
       <c r="X56" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y56" t="n">
         <v>2</v>
       </c>
       <c r="Z56" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
@@ -27506,13 +27506,13 @@
         <v>0.87538808</v>
       </c>
       <c r="X57" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y57" t="n">
         <v>3</v>
       </c>
       <c r="Z57" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
@@ -27586,13 +27586,13 @@
         <v>0.87517434</v>
       </c>
       <c r="X58" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y58" t="n">
         <v>6</v>
       </c>
       <c r="Z58" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
@@ -27666,13 +27666,13 @@
         <v>0.874917866666667</v>
       </c>
       <c r="X59" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y59" t="n">
         <v>9</v>
       </c>
       <c r="Z59" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -27746,13 +27746,13 @@
         <v>0.874692833333333</v>
       </c>
       <c r="X60" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y60" t="n">
         <v>13</v>
       </c>
       <c r="Z60" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
@@ -27826,13 +27826,13 @@
         <v>0.874694846666667</v>
       </c>
       <c r="X61" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y61" t="n">
         <v>12</v>
       </c>
       <c r="Z61" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
@@ -27906,13 +27906,13 @@
         <v>0.87457998</v>
       </c>
       <c r="X62" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y62" t="n">
         <v>16</v>
       </c>
       <c r="Z62" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -27986,13 +27986,13 @@
         <v>0.874450446666667</v>
       </c>
       <c r="X63" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y63" t="n">
         <v>19</v>
       </c>
       <c r="Z63" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64">
@@ -28066,13 +28066,13 @@
         <v>0.874314673333333</v>
       </c>
       <c r="X64" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y64" t="n">
         <v>22</v>
       </c>
       <c r="Z64" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65">
@@ -28146,13 +28146,13 @@
         <v>0.874093106666667</v>
       </c>
       <c r="X65" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y65" t="n">
         <v>26</v>
       </c>
       <c r="Z65" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -28226,13 +28226,13 @@
         <v>0.874040266666667</v>
       </c>
       <c r="X66" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y66" t="n">
         <v>27</v>
       </c>
       <c r="Z66" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
@@ -28306,13 +28306,13 @@
         <v>0.8739643</v>
       </c>
       <c r="X67" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y67" t="n">
         <v>68</v>
       </c>
       <c r="Z67" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -28386,13 +28386,13 @@
         <v>0.87394696</v>
       </c>
       <c r="X68" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y68" t="n">
         <v>70</v>
       </c>
       <c r="Z68" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
@@ -28466,13 +28466,13 @@
         <v>0.873886506666667</v>
       </c>
       <c r="X69" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y69" t="n">
         <v>80</v>
       </c>
       <c r="Z69" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70">
@@ -28546,13 +28546,13 @@
         <v>0.87377702</v>
       </c>
       <c r="X70" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y70" t="n">
         <v>81</v>
       </c>
       <c r="Z70" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
@@ -28626,13 +28626,13 @@
         <v>0.873760426666667</v>
       </c>
       <c r="X71" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y71" t="n">
         <v>82</v>
       </c>
       <c r="Z71" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72">
@@ -28706,13 +28706,13 @@
         <v>0.873672886666667</v>
       </c>
       <c r="X72" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y72" t="n">
         <v>83</v>
       </c>
       <c r="Z72" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -28786,13 +28786,13 @@
         <v>0.873672886666667</v>
       </c>
       <c r="X73" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y73" t="n">
         <v>84</v>
       </c>
       <c r="Z73" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
@@ -28866,13 +28866,13 @@
         <v>0.875342833333333</v>
       </c>
       <c r="X74" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y74" t="n">
         <v>4</v>
       </c>
       <c r="Z74" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75">
@@ -28946,13 +28946,13 @@
         <v>0.875456326666667</v>
       </c>
       <c r="X75" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y75" t="n">
         <v>1</v>
       </c>
       <c r="Z75" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
@@ -29026,13 +29026,13 @@
         <v>0.875321086666667</v>
       </c>
       <c r="X76" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y76" t="n">
         <v>5</v>
       </c>
       <c r="Z76" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77">
@@ -29106,13 +29106,13 @@
         <v>0.875013286666667</v>
       </c>
       <c r="X77" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y77" t="n">
         <v>7</v>
       </c>
       <c r="Z77" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
@@ -29186,13 +29186,13 @@
         <v>0.874918606666667</v>
       </c>
       <c r="X78" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y78" t="n">
         <v>8</v>
       </c>
       <c r="Z78" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79">
@@ -29266,13 +29266,13 @@
         <v>0.87472674</v>
       </c>
       <c r="X79" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y79" t="n">
         <v>10</v>
       </c>
       <c r="Z79" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80">
@@ -29346,13 +29346,13 @@
         <v>0.874725273333333</v>
       </c>
       <c r="X80" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y80" t="n">
         <v>11</v>
       </c>
       <c r="Z80" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81">
@@ -29426,13 +29426,13 @@
         <v>0.8746892</v>
       </c>
       <c r="X81" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y81" t="n">
         <v>14</v>
       </c>
       <c r="Z81" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
@@ -29506,13 +29506,13 @@
         <v>0.874612373333333</v>
       </c>
       <c r="X82" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y82" t="n">
         <v>15</v>
       </c>
       <c r="Z82" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
@@ -29586,13 +29586,13 @@
         <v>0.87452914</v>
       </c>
       <c r="X83" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y83" t="n">
         <v>17</v>
       </c>
       <c r="Z83" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
@@ -29666,13 +29666,13 @@
         <v>0.87447622</v>
       </c>
       <c r="X84" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y84" t="n">
         <v>18</v>
       </c>
       <c r="Z84" t="n">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
@@ -29746,13 +29746,13 @@
         <v>0.874384406666667</v>
       </c>
       <c r="X85" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y85" t="n">
         <v>20</v>
       </c>
       <c r="Z85" t="n">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
@@ -29826,13 +29826,13 @@
         <v>0.87433942</v>
       </c>
       <c r="X86" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y86" t="n">
         <v>21</v>
       </c>
       <c r="Z86" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
@@ -29906,13 +29906,13 @@
         <v>0.87428618</v>
       </c>
       <c r="X87" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y87" t="n">
         <v>23</v>
       </c>
       <c r="Z87" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -29986,13 +29986,13 @@
         <v>0.8741357</v>
       </c>
       <c r="X88" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y88" t="n">
         <v>24</v>
       </c>
       <c r="Z88" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89">
@@ -30066,13 +30066,13 @@
         <v>0.874101433333333</v>
       </c>
       <c r="X89" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y89" t="n">
         <v>25</v>
       </c>
       <c r="Z89" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
@@ -30146,13 +30146,13 @@
         <v>0.87403142</v>
       </c>
       <c r="X90" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y90" t="n">
         <v>28</v>
       </c>
       <c r="Z90" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
@@ -30226,13 +30226,13 @@
         <v>0.873963006666667</v>
       </c>
       <c r="X91" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y91" t="n">
         <v>69</v>
       </c>
       <c r="Z91" t="n">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -30400,7 +30400,7 @@
         <v>0.7866099</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y2" t="n">
         <v>52</v>
@@ -30480,7 +30480,7 @@
         <v>0.78654014</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y3" t="n">
         <v>74</v>
@@ -30560,7 +30560,7 @@
         <v>0.786536593333333</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y4" t="n">
         <v>76</v>
@@ -30640,7 +30640,7 @@
         <v>0.7866099</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y5" t="n">
         <v>53</v>
@@ -30720,7 +30720,7 @@
         <v>0.786548306666667</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y6" t="n">
         <v>70</v>
@@ -30800,7 +30800,7 @@
         <v>0.786536593333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y7" t="n">
         <v>77</v>
@@ -30880,7 +30880,7 @@
         <v>0.786601866666667</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y8" t="n">
         <v>59</v>
@@ -30960,7 +30960,7 @@
         <v>0.786540273333333</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y9" t="n">
         <v>71</v>
@@ -31040,7 +31040,7 @@
         <v>0.786536726666667</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y10" t="n">
         <v>75</v>
@@ -31120,7 +31120,7 @@
         <v>0.786646286666667</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y11" t="n">
         <v>37</v>
@@ -31200,7 +31200,7 @@
         <v>0.786540273333333</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y12" t="n">
         <v>72</v>
@@ -31280,7 +31280,7 @@
         <v>0.786575266666667</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y13" t="n">
         <v>68</v>
@@ -31360,7 +31360,7 @@
         <v>0.7866302</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y14" t="n">
         <v>38</v>
@@ -31440,7 +31440,7 @@
         <v>0.786540273333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y15" t="n">
         <v>73</v>
@@ -31520,7 +31520,7 @@
         <v>0.786575266666667</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y16" t="n">
         <v>69</v>
@@ -31600,7 +31600,7 @@
         <v>0.7866302</v>
       </c>
       <c r="X17" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y17" t="n">
         <v>39</v>
@@ -31680,7 +31680,7 @@
         <v>0.7864221</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y18" t="n">
         <v>78</v>
@@ -31760,7 +31760,7 @@
         <v>0.7866183</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y19" t="n">
         <v>50</v>
@@ -31840,7 +31840,7 @@
         <v>0.7866302</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y20" t="n">
         <v>40</v>
@@ -31920,7 +31920,7 @@
         <v>0.7864221</v>
       </c>
       <c r="X21" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y21" t="n">
         <v>79</v>
@@ -32000,7 +32000,7 @@
         <v>0.78660198</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y22" t="n">
         <v>54</v>
@@ -32080,7 +32080,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X23" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
@@ -32160,7 +32160,7 @@
         <v>0.7864221</v>
       </c>
       <c r="X24" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y24" t="n">
         <v>80</v>
@@ -32240,7 +32240,7 @@
         <v>0.7866183</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y25" t="n">
         <v>51</v>
@@ -32320,7 +32320,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X26" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y26" t="n">
         <v>42</v>
@@ -32400,7 +32400,7 @@
         <v>0.786378333333333</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y27" t="n">
         <v>81</v>
@@ -32480,7 +32480,7 @@
         <v>0.78660198</v>
       </c>
       <c r="X28" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y28" t="n">
         <v>55</v>
@@ -32560,7 +32560,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y29" t="n">
         <v>43</v>
@@ -32640,7 +32640,7 @@
         <v>0.786378333333333</v>
       </c>
       <c r="X30" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y30" t="n">
         <v>82</v>
@@ -32720,7 +32720,7 @@
         <v>0.78660198</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y31" t="n">
         <v>56</v>
@@ -32800,7 +32800,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X32" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y32" t="n">
         <v>44</v>
@@ -32880,7 +32880,7 @@
         <v>0.786378333333333</v>
       </c>
       <c r="X33" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y33" t="n">
         <v>83</v>
@@ -32960,7 +32960,7 @@
         <v>0.78660198</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y34" t="n">
         <v>57</v>
@@ -33040,7 +33040,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X35" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y35" t="n">
         <v>45</v>
@@ -33120,7 +33120,7 @@
         <v>0.786378333333333</v>
       </c>
       <c r="X36" t="n">
-        <v>0.9218614</v>
+        <v>0.9272509</v>
       </c>
       <c r="Y36" t="n">
         <v>84</v>
@@ -33200,7 +33200,7 @@
         <v>0.78659394</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y37" t="n">
         <v>62</v>
@@ -33280,7 +33280,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X38" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y38" t="n">
         <v>46</v>
@@ -33360,7 +33360,7 @@
         <v>0.766540806666667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.9159796</v>
+        <v>0.9205896</v>
       </c>
       <c r="Y39" t="n">
         <v>85</v>
@@ -33440,7 +33440,7 @@
         <v>0.78660198</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y40" t="n">
         <v>58</v>
@@ -33520,7 +33520,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X41" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y41" t="n">
         <v>47</v>
@@ -33600,7 +33600,7 @@
         <v>0.766519393333333</v>
       </c>
       <c r="X42" t="n">
-        <v>0.9159796</v>
+        <v>0.9205896</v>
       </c>
       <c r="Y42" t="n">
         <v>86</v>
@@ -33680,7 +33680,7 @@
         <v>0.78659394</v>
       </c>
       <c r="X43" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y43" t="n">
         <v>63</v>
@@ -33760,7 +33760,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X44" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y44" t="n">
         <v>48</v>
@@ -33840,7 +33840,7 @@
         <v>0.766519393333333</v>
       </c>
       <c r="X45" t="n">
-        <v>0.9159796</v>
+        <v>0.9205896</v>
       </c>
       <c r="Y45" t="n">
         <v>87</v>
@@ -33920,7 +33920,7 @@
         <v>0.78659394</v>
       </c>
       <c r="X46" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y46" t="n">
         <v>64</v>
@@ -34000,7 +34000,7 @@
         <v>0.786622153333333</v>
       </c>
       <c r="X47" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y47" t="n">
         <v>49</v>
@@ -34080,7 +34080,7 @@
         <v>0.766497966666667</v>
       </c>
       <c r="X48" t="n">
-        <v>0.9159796</v>
+        <v>0.9205896</v>
       </c>
       <c r="Y48" t="n">
         <v>88</v>
@@ -34160,7 +34160,7 @@
         <v>0.78659394</v>
       </c>
       <c r="X49" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y49" t="n">
         <v>65</v>
@@ -34240,7 +34240,7 @@
         <v>0.786598653333333</v>
       </c>
       <c r="X50" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y50" t="n">
         <v>60</v>
@@ -34320,7 +34320,7 @@
         <v>0.76643082</v>
       </c>
       <c r="X51" t="n">
-        <v>0.9159796</v>
+        <v>0.9205896</v>
       </c>
       <c r="Y51" t="n">
         <v>89</v>
@@ -34400,7 +34400,7 @@
         <v>0.786585773333333</v>
       </c>
       <c r="X52" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y52" t="n">
         <v>66</v>
@@ -34480,7 +34480,7 @@
         <v>0.786598653333333</v>
       </c>
       <c r="X53" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y53" t="n">
         <v>61</v>
@@ -34560,7 +34560,7 @@
         <v>0.76643082</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9159796</v>
+        <v>0.9205896</v>
       </c>
       <c r="Y54" t="n">
         <v>90</v>
@@ -34640,7 +34640,7 @@
         <v>0.786577733333333</v>
       </c>
       <c r="X55" t="n">
-        <v>0.9220246</v>
+        <v>0.9275773</v>
       </c>
       <c r="Y55" t="n">
         <v>67</v>
@@ -34720,13 +34720,13 @@
         <v>0.79019768</v>
       </c>
       <c r="X56" t="n">
-        <v>0.92402075</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y56" t="n">
         <v>35</v>
       </c>
       <c r="Z56" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -34800,13 +34800,13 @@
         <v>0.79105366</v>
       </c>
       <c r="X57" t="n">
-        <v>0.9241942</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y57" t="n">
         <v>33</v>
       </c>
       <c r="Z57" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -34880,13 +34880,13 @@
         <v>0.791097906666667</v>
       </c>
       <c r="X58" t="n">
-        <v>0.92438575</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y58" t="n">
         <v>31</v>
       </c>
       <c r="Z58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -34960,13 +34960,13 @@
         <v>0.791178893333333</v>
       </c>
       <c r="X59" t="n">
-        <v>0.924366</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y59" t="n">
         <v>26</v>
       </c>
       <c r="Z59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -35040,13 +35040,13 @@
         <v>0.79115802</v>
       </c>
       <c r="X60" t="n">
-        <v>0.92434035</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y60" t="n">
         <v>28</v>
       </c>
       <c r="Z60" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -35120,7 +35120,7 @@
         <v>0.79129096</v>
       </c>
       <c r="X61" t="n">
-        <v>0.9243461</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y61" t="n">
         <v>9</v>
@@ -35200,13 +35200,13 @@
         <v>0.791299586666667</v>
       </c>
       <c r="X62" t="n">
-        <v>0.92432045</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y62" t="n">
         <v>5</v>
       </c>
       <c r="Z62" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -35280,13 +35280,13 @@
         <v>0.791278333333333</v>
       </c>
       <c r="X63" t="n">
-        <v>0.9242434</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y63" t="n">
         <v>13</v>
       </c>
       <c r="Z63" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -35360,13 +35360,13 @@
         <v>0.791264053333333</v>
       </c>
       <c r="X64" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y64" t="n">
         <v>15</v>
       </c>
       <c r="Z64" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -35440,13 +35440,13 @@
         <v>0.791291866666667</v>
       </c>
       <c r="X65" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y65" t="n">
         <v>7</v>
       </c>
       <c r="Z65" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -35520,13 +35520,13 @@
         <v>0.791270986666667</v>
       </c>
       <c r="X66" t="n">
-        <v>0.92406355</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y66" t="n">
         <v>14</v>
       </c>
       <c r="Z66" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -35600,13 +35600,13 @@
         <v>0.79125946</v>
       </c>
       <c r="X67" t="n">
-        <v>0.92403785</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y67" t="n">
         <v>17</v>
       </c>
       <c r="Z67" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -35680,13 +35680,13 @@
         <v>0.791252446666667</v>
       </c>
       <c r="X68" t="n">
-        <v>0.92401215</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y68" t="n">
         <v>20</v>
       </c>
       <c r="Z68" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -35760,13 +35760,13 @@
         <v>0.791247006666667</v>
       </c>
       <c r="X69" t="n">
-        <v>0.92398645</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y69" t="n">
         <v>21</v>
       </c>
       <c r="Z69" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -35840,13 +35840,13 @@
         <v>0.791240646666667</v>
       </c>
       <c r="X70" t="n">
-        <v>0.92396075</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y70" t="n">
         <v>22</v>
       </c>
       <c r="Z70" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -35920,13 +35920,13 @@
         <v>0.791233473333333</v>
       </c>
       <c r="X71" t="n">
-        <v>0.92396075</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y71" t="n">
         <v>23</v>
       </c>
       <c r="Z71" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -36000,13 +36000,13 @@
         <v>0.791202053333333</v>
       </c>
       <c r="X72" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y72" t="n">
         <v>24</v>
       </c>
       <c r="Z72" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -36080,13 +36080,13 @@
         <v>0.791202053333333</v>
       </c>
       <c r="X73" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y73" t="n">
         <v>25</v>
       </c>
       <c r="Z73" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -36160,13 +36160,13 @@
         <v>0.790043546666667</v>
       </c>
       <c r="X74" t="n">
-        <v>0.9239375</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y74" t="n">
         <v>36</v>
       </c>
       <c r="Z74" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -36240,13 +36240,13 @@
         <v>0.790858793333333</v>
       </c>
       <c r="X75" t="n">
-        <v>0.924142</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y75" t="n">
         <v>34</v>
       </c>
       <c r="Z75" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -36320,13 +36320,13 @@
         <v>0.791082566666667</v>
       </c>
       <c r="X76" t="n">
-        <v>0.9244114</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y76" t="n">
         <v>32</v>
       </c>
       <c r="Z76" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
@@ -36400,13 +36400,13 @@
         <v>0.791116506666667</v>
       </c>
       <c r="X77" t="n">
-        <v>0.92438575</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y77" t="n">
         <v>30</v>
       </c>
       <c r="Z77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -36480,13 +36480,13 @@
         <v>0.79116376</v>
       </c>
       <c r="X78" t="n">
-        <v>0.924366</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y78" t="n">
         <v>27</v>
       </c>
       <c r="Z78" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
@@ -36560,13 +36560,13 @@
         <v>0.791149013333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.924366</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y79" t="n">
         <v>29</v>
       </c>
       <c r="Z79" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
@@ -36640,13 +36640,13 @@
         <v>0.7912529</v>
       </c>
       <c r="X80" t="n">
-        <v>0.9243975</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y80" t="n">
         <v>19</v>
       </c>
       <c r="Z80" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
@@ -36720,13 +36720,13 @@
         <v>0.79128648</v>
       </c>
       <c r="X81" t="n">
-        <v>0.9243461</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y81" t="n">
         <v>12</v>
       </c>
       <c r="Z81" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
@@ -36800,13 +36800,13 @@
         <v>0.79129174</v>
       </c>
       <c r="X82" t="n">
-        <v>0.9243461</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y82" t="n">
         <v>8</v>
       </c>
       <c r="Z82" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
@@ -36880,13 +36880,13 @@
         <v>0.791287086666667</v>
       </c>
       <c r="X83" t="n">
-        <v>0.92429475</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y83" t="n">
         <v>11</v>
       </c>
       <c r="Z83" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -36960,13 +36960,13 @@
         <v>0.791288933333333</v>
       </c>
       <c r="X84" t="n">
-        <v>0.9242691</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y84" t="n">
         <v>10</v>
       </c>
       <c r="Z84" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -37040,13 +37040,13 @@
         <v>0.79132124</v>
       </c>
       <c r="X85" t="n">
-        <v>0.9242177</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y85" t="n">
         <v>1</v>
       </c>
       <c r="Z85" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -37120,13 +37120,13 @@
         <v>0.791313393333333</v>
       </c>
       <c r="X86" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y86" t="n">
         <v>2</v>
       </c>
       <c r="Z86" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -37200,13 +37200,13 @@
         <v>0.79131138</v>
       </c>
       <c r="X87" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y87" t="n">
         <v>3</v>
       </c>
       <c r="Z87" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -37280,13 +37280,13 @@
         <v>0.79130004</v>
       </c>
       <c r="X88" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y88" t="n">
         <v>4</v>
       </c>
       <c r="Z88" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -37360,13 +37360,13 @@
         <v>0.791295453333333</v>
       </c>
       <c r="X89" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y89" t="n">
         <v>6</v>
       </c>
       <c r="Z89" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -37440,13 +37440,13 @@
         <v>0.791261293333333</v>
       </c>
       <c r="X90" t="n">
-        <v>0.92414065</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y90" t="n">
         <v>16</v>
       </c>
       <c r="Z90" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -37520,13 +37520,13 @@
         <v>0.791253513333333</v>
       </c>
       <c r="X91" t="n">
-        <v>0.92408925</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y91" t="n">
         <v>18</v>
       </c>
       <c r="Z91" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -37694,13 +37694,13 @@
         <v>0.87526566</v>
       </c>
       <c r="X2" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -37774,13 +37774,13 @@
         <v>0.875267026666667</v>
       </c>
       <c r="X3" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -37854,13 +37854,13 @@
         <v>0.87528302</v>
       </c>
       <c r="X4" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -37934,13 +37934,13 @@
         <v>0.87526566</v>
       </c>
       <c r="X5" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y5" t="n">
         <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -38014,13 +38014,13 @@
         <v>0.875267026666667</v>
       </c>
       <c r="X6" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -38094,13 +38094,13 @@
         <v>0.875267026666667</v>
       </c>
       <c r="X7" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y7" t="n">
         <v>20</v>
       </c>
       <c r="Z7" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -38174,13 +38174,13 @@
         <v>0.87525156</v>
       </c>
       <c r="X8" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y8" t="n">
         <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -38254,13 +38254,13 @@
         <v>0.8752529</v>
       </c>
       <c r="X9" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y9" t="n">
         <v>36</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -38334,13 +38334,13 @@
         <v>0.8752529</v>
       </c>
       <c r="X10" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y10" t="n">
         <v>37</v>
       </c>
       <c r="Z10" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -38414,13 +38414,13 @@
         <v>0.875281526666667</v>
       </c>
       <c r="X11" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -38494,13 +38494,13 @@
         <v>0.87526862</v>
       </c>
       <c r="X12" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y12" t="n">
         <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -38574,13 +38574,13 @@
         <v>0.875299906666667</v>
       </c>
       <c r="X13" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y13" t="n">
         <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -38654,13 +38654,13 @@
         <v>0.875276266666667</v>
       </c>
       <c r="X14" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y14" t="n">
         <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -38734,13 +38734,13 @@
         <v>0.87526862</v>
       </c>
       <c r="X15" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y15" t="n">
         <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -38814,13 +38814,13 @@
         <v>0.875299906666667</v>
       </c>
       <c r="X16" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y16" t="n">
         <v>5</v>
       </c>
       <c r="Z16" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -38894,13 +38894,13 @@
         <v>0.875276266666667</v>
       </c>
       <c r="X17" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -38974,13 +38974,13 @@
         <v>0.87524736</v>
       </c>
       <c r="X18" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y18" t="n">
         <v>39</v>
       </c>
       <c r="Z18" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -39054,13 +39054,13 @@
         <v>0.875328126666667</v>
       </c>
       <c r="X19" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y19" t="n">
         <v>2</v>
       </c>
       <c r="Z19" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -39134,13 +39134,13 @@
         <v>0.875276266666667</v>
       </c>
       <c r="X20" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -39214,13 +39214,13 @@
         <v>0.87524736</v>
       </c>
       <c r="X21" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y21" t="n">
         <v>40</v>
       </c>
       <c r="Z21" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -39294,13 +39294,13 @@
         <v>0.87529684</v>
       </c>
       <c r="X22" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y22" t="n">
         <v>6</v>
       </c>
       <c r="Z22" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -39374,13 +39374,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X23" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y23" t="n">
         <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -39454,13 +39454,13 @@
         <v>0.87524736</v>
       </c>
       <c r="X24" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -39534,13 +39534,13 @@
         <v>0.875328126666667</v>
       </c>
       <c r="X25" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y25" t="n">
         <v>3</v>
       </c>
       <c r="Z25" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -39614,13 +39614,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X26" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y26" t="n">
         <v>24</v>
       </c>
       <c r="Z26" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -39694,13 +39694,13 @@
         <v>0.87523048</v>
       </c>
       <c r="X27" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y27" t="n">
         <v>45</v>
       </c>
       <c r="Z27" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -39774,13 +39774,13 @@
         <v>0.87529684</v>
       </c>
       <c r="X28" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y28" t="n">
         <v>7</v>
       </c>
       <c r="Z28" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -39854,13 +39854,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X29" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y29" t="n">
         <v>25</v>
       </c>
       <c r="Z29" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -39934,13 +39934,13 @@
         <v>0.87523048</v>
       </c>
       <c r="X30" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y30" t="n">
         <v>46</v>
       </c>
       <c r="Z30" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -40014,13 +40014,13 @@
         <v>0.87529684</v>
       </c>
       <c r="X31" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
       </c>
       <c r="Z31" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -40094,13 +40094,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X32" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y32" t="n">
         <v>26</v>
       </c>
       <c r="Z32" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -40174,13 +40174,13 @@
         <v>0.87523048</v>
       </c>
       <c r="X33" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y33" t="n">
         <v>47</v>
       </c>
       <c r="Z33" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -40254,13 +40254,13 @@
         <v>0.875252913333333</v>
       </c>
       <c r="X34" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y34" t="n">
         <v>34</v>
       </c>
       <c r="Z34" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -40334,13 +40334,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X35" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y35" t="n">
         <v>27</v>
       </c>
       <c r="Z35" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -40414,13 +40414,13 @@
         <v>0.87523048</v>
       </c>
       <c r="X36" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y36" t="n">
         <v>48</v>
       </c>
       <c r="Z36" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -40494,13 +40494,13 @@
         <v>0.875238833333333</v>
       </c>
       <c r="X37" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y37" t="n">
         <v>44</v>
       </c>
       <c r="Z37" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -40574,13 +40574,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X38" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y38" t="n">
         <v>28</v>
       </c>
       <c r="Z38" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -40654,13 +40654,13 @@
         <v>0.8739957</v>
       </c>
       <c r="X39" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y39" t="n">
         <v>64</v>
       </c>
       <c r="Z39" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -40734,13 +40734,13 @@
         <v>0.875252913333333</v>
       </c>
       <c r="X40" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y40" t="n">
         <v>35</v>
       </c>
       <c r="Z40" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
@@ -40814,13 +40814,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X41" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y41" t="n">
         <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -40894,13 +40894,13 @@
         <v>0.8739957</v>
       </c>
       <c r="X42" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y42" t="n">
         <v>65</v>
       </c>
       <c r="Z42" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -40974,13 +40974,13 @@
         <v>0.875254566666667</v>
       </c>
       <c r="X43" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y43" t="n">
         <v>32</v>
       </c>
       <c r="Z43" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -41054,13 +41054,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X44" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y44" t="n">
         <v>30</v>
       </c>
       <c r="Z44" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -41134,13 +41134,13 @@
         <v>0.8739957</v>
       </c>
       <c r="X45" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y45" t="n">
         <v>66</v>
       </c>
       <c r="Z45" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -41214,13 +41214,13 @@
         <v>0.875254566666667</v>
       </c>
       <c r="X46" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y46" t="n">
         <v>33</v>
       </c>
       <c r="Z46" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -41294,13 +41294,13 @@
         <v>0.875262213333333</v>
       </c>
       <c r="X47" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y47" t="n">
         <v>31</v>
       </c>
       <c r="Z47" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -41374,13 +41374,13 @@
         <v>0.873983106666667</v>
       </c>
       <c r="X48" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y48" t="n">
         <v>67</v>
       </c>
       <c r="Z48" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -41454,13 +41454,13 @@
         <v>0.87526986</v>
       </c>
       <c r="X49" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y49" t="n">
         <v>15</v>
       </c>
       <c r="Z49" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -41534,13 +41534,13 @@
         <v>0.875217853333333</v>
       </c>
       <c r="X50" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y50" t="n">
         <v>49</v>
       </c>
       <c r="Z50" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -41614,13 +41614,13 @@
         <v>0.873951686666667</v>
       </c>
       <c r="X51" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y51" t="n">
         <v>68</v>
       </c>
       <c r="Z51" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
@@ -41694,13 +41694,13 @@
         <v>0.87524114</v>
       </c>
       <c r="X52" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y52" t="n">
         <v>43</v>
       </c>
       <c r="Z52" t="n">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -41774,13 +41774,13 @@
         <v>0.875217853333333</v>
       </c>
       <c r="X53" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y53" t="n">
         <v>50</v>
       </c>
       <c r="Z53" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -41854,13 +41854,13 @@
         <v>0.873951686666667</v>
       </c>
       <c r="X54" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y54" t="n">
         <v>69</v>
       </c>
       <c r="Z54" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
@@ -41934,13 +41934,13 @@
         <v>0.875242366666667</v>
       </c>
       <c r="X55" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y55" t="n">
         <v>42</v>
       </c>
       <c r="Z55" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -42014,13 +42014,13 @@
         <v>0.87527432</v>
       </c>
       <c r="X56" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y56" t="n">
         <v>14</v>
       </c>
       <c r="Z56" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -42094,13 +42094,13 @@
         <v>0.87489538</v>
       </c>
       <c r="X57" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y57" t="n">
         <v>52</v>
       </c>
       <c r="Z57" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
@@ -42174,13 +42174,13 @@
         <v>0.87469458</v>
       </c>
       <c r="X58" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y58" t="n">
         <v>55</v>
       </c>
       <c r="Z58" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -42254,13 +42254,13 @@
         <v>0.874509753333333</v>
       </c>
       <c r="X59" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y59" t="n">
         <v>57</v>
       </c>
       <c r="Z59" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -42334,13 +42334,13 @@
         <v>0.874282986666667</v>
       </c>
       <c r="X60" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y60" t="n">
         <v>60</v>
       </c>
       <c r="Z60" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
@@ -42414,13 +42414,13 @@
         <v>0.874028906666667</v>
       </c>
       <c r="X61" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y61" t="n">
         <v>63</v>
       </c>
       <c r="Z61" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -42494,13 +42494,13 @@
         <v>0.87392734</v>
       </c>
       <c r="X62" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y62" t="n">
         <v>71</v>
       </c>
       <c r="Z62" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -42574,13 +42574,13 @@
         <v>0.873817373333333</v>
       </c>
       <c r="X63" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y63" t="n">
         <v>73</v>
       </c>
       <c r="Z63" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
@@ -42654,13 +42654,13 @@
         <v>0.873665346666667</v>
       </c>
       <c r="X64" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y64" t="n">
         <v>79</v>
       </c>
       <c r="Z64" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -42734,13 +42734,13 @@
         <v>0.873554013333333</v>
       </c>
       <c r="X65" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y65" t="n">
         <v>82</v>
       </c>
       <c r="Z65" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -42814,13 +42814,13 @@
         <v>0.873507973333333</v>
       </c>
       <c r="X66" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y66" t="n">
         <v>83</v>
       </c>
       <c r="Z66" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -42894,13 +42894,13 @@
         <v>0.873470093333333</v>
       </c>
       <c r="X67" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y67" t="n">
         <v>84</v>
       </c>
       <c r="Z67" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
@@ -42974,13 +42974,13 @@
         <v>0.873457726666667</v>
       </c>
       <c r="X68" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y68" t="n">
         <v>85</v>
       </c>
       <c r="Z68" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -43054,13 +43054,13 @@
         <v>0.873457726666667</v>
       </c>
       <c r="X69" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y69" t="n">
         <v>86</v>
       </c>
       <c r="Z69" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
@@ -43134,13 +43134,13 @@
         <v>0.8734332</v>
       </c>
       <c r="X70" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y70" t="n">
         <v>87</v>
       </c>
       <c r="Z70" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -43214,13 +43214,13 @@
         <v>0.873408806666667</v>
       </c>
       <c r="X71" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y71" t="n">
         <v>88</v>
       </c>
       <c r="Z71" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -43294,13 +43294,13 @@
         <v>0.873323006666667</v>
       </c>
       <c r="X72" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y72" t="n">
         <v>89</v>
       </c>
       <c r="Z72" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -43374,13 +43374,13 @@
         <v>0.87329888</v>
       </c>
       <c r="X73" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y73" t="n">
         <v>90</v>
       </c>
       <c r="Z73" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74">
@@ -43454,13 +43454,13 @@
         <v>0.87537476</v>
       </c>
       <c r="X74" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y74" t="n">
         <v>1</v>
       </c>
       <c r="Z74" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
@@ -43534,13 +43534,13 @@
         <v>0.874967073333333</v>
       </c>
       <c r="X75" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y75" t="n">
         <v>51</v>
       </c>
       <c r="Z75" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
@@ -43614,13 +43614,13 @@
         <v>0.874773846666667</v>
       </c>
       <c r="X76" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y76" t="n">
         <v>53</v>
       </c>
       <c r="Z76" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -43694,13 +43694,13 @@
         <v>0.874712013333333</v>
       </c>
       <c r="X77" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y77" t="n">
         <v>54</v>
       </c>
       <c r="Z77" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
@@ -43774,13 +43774,13 @@
         <v>0.874558086666667</v>
       </c>
       <c r="X78" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y78" t="n">
         <v>56</v>
       </c>
       <c r="Z78" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
@@ -43854,13 +43854,13 @@
         <v>0.874446333333333</v>
       </c>
       <c r="X79" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y79" t="n">
         <v>58</v>
       </c>
       <c r="Z79" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
@@ -43934,13 +43934,13 @@
         <v>0.874312033333333</v>
       </c>
       <c r="X80" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y80" t="n">
         <v>59</v>
       </c>
       <c r="Z80" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -44014,13 +44014,13 @@
         <v>0.874083566666667</v>
       </c>
       <c r="X81" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y81" t="n">
         <v>61</v>
       </c>
       <c r="Z81" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
@@ -44094,13 +44094,13 @@
         <v>0.87404886</v>
       </c>
       <c r="X82" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y82" t="n">
         <v>62</v>
       </c>
       <c r="Z82" t="n">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
@@ -44174,13 +44174,13 @@
         <v>0.87394696</v>
       </c>
       <c r="X83" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y83" t="n">
         <v>70</v>
       </c>
       <c r="Z83" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
@@ -44254,13 +44254,13 @@
         <v>0.873903846666667</v>
       </c>
       <c r="X84" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y84" t="n">
         <v>72</v>
       </c>
       <c r="Z84" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
@@ -44334,13 +44334,13 @@
         <v>0.873801753333333</v>
       </c>
       <c r="X85" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y85" t="n">
         <v>74</v>
       </c>
       <c r="Z85" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
@@ -44414,13 +44414,13 @@
         <v>0.873801753333333</v>
       </c>
       <c r="X86" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y86" t="n">
         <v>75</v>
       </c>
       <c r="Z86" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
@@ -44494,13 +44494,13 @@
         <v>0.87373412</v>
       </c>
       <c r="X87" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y87" t="n">
         <v>76</v>
       </c>
       <c r="Z87" t="n">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
@@ -44574,13 +44574,13 @@
         <v>0.873708906666667</v>
       </c>
       <c r="X88" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y88" t="n">
         <v>77</v>
       </c>
       <c r="Z88" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
@@ -44654,13 +44654,13 @@
         <v>0.873708906666667</v>
       </c>
       <c r="X89" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y89" t="n">
         <v>78</v>
       </c>
       <c r="Z89" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
@@ -44734,13 +44734,13 @@
         <v>0.873655593333333</v>
       </c>
       <c r="X90" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y90" t="n">
         <v>80</v>
       </c>
       <c r="Z90" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -44814,13 +44814,13 @@
         <v>0.87361324</v>
       </c>
       <c r="X91" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="Y91" t="n">
         <v>81</v>
       </c>
       <c r="Z91" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -44988,13 +44988,13 @@
         <v>0.78974572</v>
       </c>
       <c r="X2" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y2" t="n">
         <v>60</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -45068,13 +45068,13 @@
         <v>0.789701633333333</v>
       </c>
       <c r="X3" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y3" t="n">
         <v>73</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -45148,13 +45148,13 @@
         <v>0.789723493333333</v>
       </c>
       <c r="X4" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y4" t="n">
         <v>67</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -45228,13 +45228,13 @@
         <v>0.78974572</v>
       </c>
       <c r="X5" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y5" t="n">
         <v>61</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -45308,13 +45308,13 @@
         <v>0.789701633333333</v>
       </c>
       <c r="X6" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y6" t="n">
         <v>74</v>
       </c>
       <c r="Z6" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -45388,13 +45388,13 @@
         <v>0.789701633333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y7" t="n">
         <v>75</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -45468,13 +45468,13 @@
         <v>0.789737666666667</v>
       </c>
       <c r="X8" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y8" t="n">
         <v>63</v>
       </c>
       <c r="Z8" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -45548,13 +45548,13 @@
         <v>0.78969358</v>
       </c>
       <c r="X9" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y9" t="n">
         <v>76</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -45628,13 +45628,13 @@
         <v>0.78969358</v>
       </c>
       <c r="X10" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y10" t="n">
         <v>77</v>
       </c>
       <c r="Z10" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -45708,13 +45708,13 @@
         <v>0.789795573333333</v>
       </c>
       <c r="X11" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y11" t="n">
         <v>42</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -45788,13 +45788,13 @@
         <v>0.789715746666667</v>
       </c>
       <c r="X12" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y12" t="n">
         <v>70</v>
       </c>
       <c r="Z12" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -45868,13 +45868,13 @@
         <v>0.78976204</v>
       </c>
       <c r="X13" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y13" t="n">
         <v>54</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -45948,13 +45948,13 @@
         <v>0.789801373333333</v>
       </c>
       <c r="X14" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y14" t="n">
         <v>39</v>
       </c>
       <c r="Z14" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -46028,13 +46028,13 @@
         <v>0.789715746666667</v>
       </c>
       <c r="X15" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y15" t="n">
         <v>71</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -46108,13 +46108,13 @@
         <v>0.78976204</v>
       </c>
       <c r="X16" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y16" t="n">
         <v>55</v>
       </c>
       <c r="Z16" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -46188,13 +46188,13 @@
         <v>0.789801373333333</v>
       </c>
       <c r="X17" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y17" t="n">
         <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -46268,13 +46268,13 @@
         <v>0.789644713333333</v>
       </c>
       <c r="X18" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y18" t="n">
         <v>78</v>
       </c>
       <c r="Z18" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -46348,13 +46348,13 @@
         <v>0.789805413333333</v>
       </c>
       <c r="X19" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y19" t="n">
         <v>37</v>
       </c>
       <c r="Z19" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -46428,13 +46428,13 @@
         <v>0.789801373333333</v>
       </c>
       <c r="X20" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -46508,13 +46508,13 @@
         <v>0.789644713333333</v>
       </c>
       <c r="X21" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y21" t="n">
         <v>79</v>
       </c>
       <c r="Z21" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -46588,13 +46588,13 @@
         <v>0.78975912</v>
       </c>
       <c r="X22" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y22" t="n">
         <v>57</v>
       </c>
       <c r="Z22" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -46668,13 +46668,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X23" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y23" t="n">
         <v>43</v>
       </c>
       <c r="Z23" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -46748,13 +46748,13 @@
         <v>0.789644713333333</v>
       </c>
       <c r="X24" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y24" t="n">
         <v>80</v>
       </c>
       <c r="Z24" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -46828,13 +46828,13 @@
         <v>0.789805413333333</v>
       </c>
       <c r="X25" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y25" t="n">
         <v>38</v>
       </c>
       <c r="Z25" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -46908,13 +46908,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X26" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y26" t="n">
         <v>44</v>
       </c>
       <c r="Z26" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -46988,13 +46988,13 @@
         <v>0.789606106666667</v>
       </c>
       <c r="X27" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y27" t="n">
         <v>81</v>
       </c>
       <c r="Z27" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -47068,13 +47068,13 @@
         <v>0.78975912</v>
       </c>
       <c r="X28" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y28" t="n">
         <v>58</v>
       </c>
       <c r="Z28" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -47148,13 +47148,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X29" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y29" t="n">
         <v>45</v>
       </c>
       <c r="Z29" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -47228,13 +47228,13 @@
         <v>0.789606106666667</v>
       </c>
       <c r="X30" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y30" t="n">
         <v>82</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -47308,13 +47308,13 @@
         <v>0.78975912</v>
       </c>
       <c r="X31" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y31" t="n">
         <v>59</v>
       </c>
       <c r="Z31" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -47388,13 +47388,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X32" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y32" t="n">
         <v>46</v>
       </c>
       <c r="Z32" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -47468,13 +47468,13 @@
         <v>0.789606106666667</v>
       </c>
       <c r="X33" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y33" t="n">
         <v>83</v>
       </c>
       <c r="Z33" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -47548,13 +47548,13 @@
         <v>0.78972084</v>
       </c>
       <c r="X34" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y34" t="n">
         <v>68</v>
       </c>
       <c r="Z34" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -47628,13 +47628,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X35" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y35" t="n">
         <v>47</v>
       </c>
       <c r="Z35" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -47708,13 +47708,13 @@
         <v>0.789606106666667</v>
       </c>
       <c r="X36" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y36" t="n">
         <v>84</v>
       </c>
       <c r="Z36" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -47788,13 +47788,13 @@
         <v>0.789712786666667</v>
       </c>
       <c r="X37" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y37" t="n">
         <v>72</v>
       </c>
       <c r="Z37" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -47868,13 +47868,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X38" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y38" t="n">
         <v>48</v>
       </c>
       <c r="Z38" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -47948,13 +47948,13 @@
         <v>0.786733926666667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y39" t="n">
         <v>85</v>
       </c>
       <c r="Z39" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -48028,13 +48028,13 @@
         <v>0.78972084</v>
       </c>
       <c r="X40" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y40" t="n">
         <v>69</v>
       </c>
       <c r="Z40" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
@@ -48108,13 +48108,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X41" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y41" t="n">
         <v>49</v>
       </c>
       <c r="Z41" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -48188,13 +48188,13 @@
         <v>0.786733926666667</v>
       </c>
       <c r="X42" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y42" t="n">
         <v>86</v>
       </c>
       <c r="Z42" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -48268,13 +48268,13 @@
         <v>0.78973494</v>
       </c>
       <c r="X43" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y43" t="n">
         <v>64</v>
       </c>
       <c r="Z43" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -48348,13 +48348,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X44" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y44" t="n">
         <v>50</v>
       </c>
       <c r="Z44" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -48428,13 +48428,13 @@
         <v>0.786733926666667</v>
       </c>
       <c r="X45" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y45" t="n">
         <v>87</v>
       </c>
       <c r="Z45" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -48508,13 +48508,13 @@
         <v>0.78973494</v>
       </c>
       <c r="X46" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y46" t="n">
         <v>65</v>
       </c>
       <c r="Z46" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -48588,13 +48588,13 @@
         <v>0.789793306666667</v>
       </c>
       <c r="X47" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y47" t="n">
         <v>51</v>
       </c>
       <c r="Z47" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -48668,13 +48668,13 @@
         <v>0.786712246666667</v>
       </c>
       <c r="X48" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y48" t="n">
         <v>88</v>
       </c>
       <c r="Z48" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -48748,13 +48748,13 @@
         <v>0.789759373333333</v>
       </c>
       <c r="X49" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y49" t="n">
         <v>56</v>
       </c>
       <c r="Z49" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -48828,13 +48828,13 @@
         <v>0.789769766666667</v>
       </c>
       <c r="X50" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y50" t="n">
         <v>52</v>
       </c>
       <c r="Z50" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -48908,13 +48908,13 @@
         <v>0.786667813333333</v>
       </c>
       <c r="X51" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y51" t="n">
         <v>89</v>
       </c>
       <c r="Z51" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
@@ -48988,13 +48988,13 @@
         <v>0.789726773333333</v>
       </c>
       <c r="X52" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y52" t="n">
         <v>66</v>
       </c>
       <c r="Z52" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -49068,13 +49068,13 @@
         <v>0.789769766666667</v>
       </c>
       <c r="X53" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y53" t="n">
         <v>53</v>
       </c>
       <c r="Z53" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -49148,13 +49148,13 @@
         <v>0.786667813333333</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y54" t="n">
         <v>90</v>
       </c>
       <c r="Z54" t="n">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
@@ -49228,13 +49228,13 @@
         <v>0.789743146666667</v>
       </c>
       <c r="X55" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Y55" t="n">
         <v>62</v>
       </c>
       <c r="Z55" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -49308,13 +49308,13 @@
         <v>0.791082693333333</v>
       </c>
       <c r="X56" t="n">
-        <v>0.9244114</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y56" t="n">
         <v>34</v>
       </c>
       <c r="Z56" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -49388,13 +49388,13 @@
         <v>0.791142406666667</v>
       </c>
       <c r="X57" t="n">
-        <v>0.924366</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y57" t="n">
         <v>30</v>
       </c>
       <c r="Z57" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
@@ -49468,13 +49468,13 @@
         <v>0.791253053333333</v>
       </c>
       <c r="X58" t="n">
-        <v>0.9243461</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y58" t="n">
         <v>9</v>
       </c>
       <c r="Z58" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -49548,13 +49548,13 @@
         <v>0.79129578</v>
       </c>
       <c r="X59" t="n">
-        <v>0.9242177</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y59" t="n">
         <v>1</v>
       </c>
       <c r="Z59" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -49628,13 +49628,13 @@
         <v>0.791253966666667</v>
       </c>
       <c r="X60" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
       </c>
       <c r="Z60" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
@@ -49708,13 +49708,13 @@
         <v>0.791220293333333</v>
       </c>
       <c r="X61" t="n">
-        <v>0.92401215</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y61" t="n">
         <v>18</v>
       </c>
       <c r="Z61" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -49788,13 +49788,13 @@
         <v>0.791198166666667</v>
       </c>
       <c r="X62" t="n">
-        <v>0.92396075</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y62" t="n">
         <v>20</v>
       </c>
       <c r="Z62" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -49868,13 +49868,13 @@
         <v>0.791228546666667</v>
       </c>
       <c r="X63" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y63" t="n">
         <v>14</v>
       </c>
       <c r="Z63" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
@@ -49948,13 +49948,13 @@
         <v>0.791204573333333</v>
       </c>
       <c r="X64" t="n">
-        <v>0.92383225</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y64" t="n">
         <v>19</v>
       </c>
       <c r="Z64" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -50028,13 +50028,13 @@
         <v>0.79118524</v>
       </c>
       <c r="X65" t="n">
-        <v>0.92383225</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y65" t="n">
         <v>23</v>
       </c>
       <c r="Z65" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -50108,13 +50108,13 @@
         <v>0.791176993333333</v>
       </c>
       <c r="X66" t="n">
-        <v>0.92380655</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y66" t="n">
         <v>24</v>
       </c>
       <c r="Z66" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -50188,13 +50188,13 @@
         <v>0.79116256</v>
       </c>
       <c r="X67" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y67" t="n">
         <v>25</v>
       </c>
       <c r="Z67" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
@@ -50268,13 +50268,13 @@
         <v>0.791158746666667</v>
       </c>
       <c r="X68" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y68" t="n">
         <v>26</v>
       </c>
       <c r="Z68" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -50348,13 +50348,13 @@
         <v>0.791158746666667</v>
       </c>
       <c r="X69" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y69" t="n">
         <v>27</v>
       </c>
       <c r="Z69" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
@@ -50428,13 +50428,13 @@
         <v>0.791157746666667</v>
       </c>
       <c r="X70" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y70" t="n">
         <v>28</v>
       </c>
       <c r="Z70" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -50508,13 +50508,13 @@
         <v>0.79115674</v>
       </c>
       <c r="X71" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y71" t="n">
         <v>29</v>
       </c>
       <c r="Z71" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -50588,13 +50588,13 @@
         <v>0.79112516</v>
       </c>
       <c r="X72" t="n">
-        <v>0.9237551</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y72" t="n">
         <v>31</v>
       </c>
       <c r="Z72" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -50668,13 +50668,13 @@
         <v>0.791124153333333</v>
       </c>
       <c r="X73" t="n">
-        <v>0.9237551</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y73" t="n">
         <v>32</v>
       </c>
       <c r="Z73" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74">
@@ -50748,13 +50748,13 @@
         <v>0.79106726</v>
       </c>
       <c r="X74" t="n">
-        <v>0.9244114</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y74" t="n">
         <v>35</v>
       </c>
       <c r="Z74" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
@@ -50828,13 +50828,13 @@
         <v>0.791059506666667</v>
       </c>
       <c r="X75" t="n">
-        <v>0.92428315</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y75" t="n">
         <v>36</v>
       </c>
       <c r="Z75" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
@@ -50908,13 +50908,13 @@
         <v>0.791121693333333</v>
       </c>
       <c r="X76" t="n">
-        <v>0.92434035</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y76" t="n">
         <v>33</v>
       </c>
       <c r="Z76" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -50988,13 +50988,13 @@
         <v>0.79128928</v>
       </c>
       <c r="X77" t="n">
-        <v>0.9243461</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y77" t="n">
         <v>2</v>
       </c>
       <c r="Z77" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
@@ -51068,13 +51068,13 @@
         <v>0.79128498</v>
       </c>
       <c r="X78" t="n">
-        <v>0.9242691</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y78" t="n">
         <v>3</v>
       </c>
       <c r="Z78" t="n">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
@@ -51148,13 +51148,13 @@
         <v>0.791279546666667</v>
       </c>
       <c r="X79" t="n">
-        <v>0.924192</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y79" t="n">
         <v>4</v>
       </c>
       <c r="Z79" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
@@ -51228,13 +51228,13 @@
         <v>0.791264953333333</v>
       </c>
       <c r="X80" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
       </c>
       <c r="Z80" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -51308,13 +51308,13 @@
         <v>0.791279006666667</v>
       </c>
       <c r="X81" t="n">
-        <v>0.92408925</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y81" t="n">
         <v>5</v>
       </c>
       <c r="Z81" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
@@ -51388,13 +51388,13 @@
         <v>0.79126498</v>
       </c>
       <c r="X82" t="n">
-        <v>0.92403785</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y82" t="n">
         <v>6</v>
       </c>
       <c r="Z82" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
@@ -51468,13 +51468,13 @@
         <v>0.791252446666667</v>
       </c>
       <c r="X83" t="n">
-        <v>0.92401215</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y83" t="n">
         <v>10</v>
       </c>
       <c r="Z83" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
@@ -51548,13 +51548,13 @@
         <v>0.791244426666667</v>
       </c>
       <c r="X84" t="n">
-        <v>0.92398645</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y84" t="n">
         <v>11</v>
       </c>
       <c r="Z84" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
@@ -51628,13 +51628,13 @@
         <v>0.791230813333333</v>
       </c>
       <c r="X85" t="n">
-        <v>0.92396075</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y85" t="n">
         <v>12</v>
       </c>
       <c r="Z85" t="n">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
@@ -51708,13 +51708,13 @@
         <v>0.791230813333333</v>
       </c>
       <c r="X86" t="n">
-        <v>0.92396075</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y86" t="n">
         <v>13</v>
       </c>
       <c r="Z86" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
@@ -51788,13 +51788,13 @@
         <v>0.791223033333333</v>
       </c>
       <c r="X87" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y87" t="n">
         <v>15</v>
       </c>
       <c r="Z87" t="n">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
@@ -51868,13 +51868,13 @@
         <v>0.791222026666667</v>
       </c>
       <c r="X88" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y88" t="n">
         <v>16</v>
       </c>
       <c r="Z88" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
@@ -51948,13 +51948,13 @@
         <v>0.791222026666667</v>
       </c>
       <c r="X89" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y89" t="n">
         <v>17</v>
       </c>
       <c r="Z89" t="n">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
@@ -52028,13 +52028,13 @@
         <v>0.79119504</v>
       </c>
       <c r="X90" t="n">
-        <v>0.92388365</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y90" t="n">
         <v>21</v>
       </c>
       <c r="Z90" t="n">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -52108,13 +52108,13 @@
         <v>0.79118702</v>
       </c>
       <c r="X91" t="n">
-        <v>0.92385795</v>
+        <v>0.9293527</v>
       </c>
       <c r="Y91" t="n">
         <v>22</v>
       </c>
       <c r="Z91" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
